--- a/greece.xlsx
+++ b/greece.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="greece" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">greece!$A$1:$E$409</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -43,1231 +46,1231 @@
     <t>Thebes</t>
   </si>
   <si>
-    <t>Attikí</t>
-  </si>
-  <si>
-    <t>Thessaloníki</t>
-  </si>
-  <si>
-    <t>Kentrikí Makedonía</t>
-  </si>
-  <si>
-    <t>Pátra</t>
-  </si>
-  <si>
-    <t>Dytikí Elláda</t>
-  </si>
-  <si>
-    <t>Lárisa</t>
-  </si>
-  <si>
-    <t>Thessalía</t>
-  </si>
-  <si>
-    <t>Irákleio</t>
-  </si>
-  <si>
-    <t>Kríti</t>
-  </si>
-  <si>
-    <t>Peristéri</t>
-  </si>
-  <si>
-    <t>Kallithéa</t>
-  </si>
-  <si>
-    <t>Níkaia</t>
-  </si>
-  <si>
-    <t>Glyfáda</t>
-  </si>
-  <si>
-    <t>Vólos</t>
-  </si>
-  <si>
-    <t>Chalándri</t>
-  </si>
-  <si>
-    <t>Kalamáta</t>
-  </si>
-  <si>
-    <t>Peloponnísos</t>
-  </si>
-  <si>
-    <t>Néa Ionía</t>
-  </si>
-  <si>
-    <t>Ioánnina</t>
-  </si>
-  <si>
-    <t>Ípeiros</t>
-  </si>
-  <si>
-    <t>Tríkala</t>
-  </si>
-  <si>
-    <t>Chalkída</t>
-  </si>
-  <si>
-    <t>Stereá Elláda</t>
-  </si>
-  <si>
-    <t>Sérres</t>
-  </si>
-  <si>
-    <t>Alexandroúpoli</t>
-  </si>
-  <si>
-    <t>Anatolikí Makedonía kai Thráki</t>
-  </si>
-  <si>
-    <t>Ródos</t>
-  </si>
-  <si>
-    <t>Notío Aigaío</t>
-  </si>
-  <si>
-    <t>Xánthi</t>
-  </si>
-  <si>
-    <t>Kateríni</t>
-  </si>
-  <si>
-    <t>Kavála</t>
-  </si>
-  <si>
-    <t>Chaniá</t>
-  </si>
-  <si>
-    <t>Lamía</t>
-  </si>
-  <si>
-    <t>Komotiní</t>
-  </si>
-  <si>
-    <t>Agrínio</t>
-  </si>
-  <si>
-    <t>Dráma</t>
-  </si>
-  <si>
-    <t>Véroia</t>
-  </si>
-  <si>
-    <t>Kozáni</t>
-  </si>
-  <si>
-    <t>Dytikí Makedonía</t>
-  </si>
-  <si>
-    <t>Kardítsa</t>
-  </si>
-  <si>
-    <t>Réthymno</t>
-  </si>
-  <si>
-    <t>Trípoli</t>
-  </si>
-  <si>
-    <t>Kórinthos</t>
-  </si>
-  <si>
-    <t>Giannitsá</t>
-  </si>
-  <si>
-    <t>Mytilíni</t>
-  </si>
-  <si>
-    <t>Voreío Aigaío</t>
-  </si>
-  <si>
-    <t>Chíos</t>
-  </si>
-  <si>
-    <t>Néa Filadélfeia</t>
-  </si>
-  <si>
-    <t>Salamína</t>
-  </si>
-  <si>
-    <t>Elefsína</t>
-  </si>
-  <si>
-    <t>Kérkyra</t>
-  </si>
-  <si>
-    <t>Ionía Nísia</t>
-  </si>
-  <si>
-    <t>Pýrgos</t>
-  </si>
-  <si>
-    <t>Mégara</t>
-  </si>
-  <si>
-    <t>Kilkís</t>
-  </si>
-  <si>
-    <t>Péfki</t>
-  </si>
-  <si>
-    <t>Livadeiá</t>
-  </si>
-  <si>
-    <t>Préveza</t>
-  </si>
-  <si>
-    <t>Orestiáda</t>
-  </si>
-  <si>
-    <t>Édessa</t>
-  </si>
-  <si>
-    <t>Spárti</t>
-  </si>
-  <si>
-    <t>Thérmi</t>
-  </si>
-  <si>
-    <t>Alexándreia</t>
-  </si>
-  <si>
-    <t>Paianía</t>
-  </si>
-  <si>
-    <t>Náfplio</t>
-  </si>
-  <si>
-    <t>Náfpaktos</t>
-  </si>
-  <si>
-    <t>Kastoriá</t>
-  </si>
-  <si>
-    <t>Kálymnos</t>
-  </si>
-  <si>
-    <t>Ermoúpoli</t>
-  </si>
-  <si>
-    <t>Ágios Nikólaos</t>
-  </si>
-  <si>
-    <t>Týrnavos</t>
-  </si>
-  <si>
-    <t>Diavatá</t>
-  </si>
-  <si>
-    <t>Kiáto</t>
-  </si>
-  <si>
-    <t>Anatolí</t>
-  </si>
-  <si>
-    <t>Argostóli</t>
-  </si>
-  <si>
-    <t>Lykóvrysi</t>
-  </si>
-  <si>
-    <t>Pórto Ráfti</t>
-  </si>
-  <si>
-    <t>Néa Artáki</t>
-  </si>
-  <si>
-    <t>Zefýri</t>
-  </si>
-  <si>
-    <t>Siteía</t>
-  </si>
-  <si>
-    <t>Néa Moudaniá</t>
-  </si>
-  <si>
-    <t>Fársala</t>
-  </si>
-  <si>
-    <t>Síndos</t>
-  </si>
-  <si>
-    <t>Didymóteicho</t>
-  </si>
-  <si>
-    <t>Spáta</t>
-  </si>
-  <si>
-    <t>Epanomí</t>
-  </si>
-  <si>
-    <t>Chrysoúpoli</t>
-  </si>
-  <si>
-    <t>Néa Péramos</t>
-  </si>
-  <si>
-    <t>Kalampáka</t>
-  </si>
-  <si>
-    <t>Almyrós</t>
-  </si>
-  <si>
-    <t>Koufália</t>
-  </si>
-  <si>
-    <t>Giánnouli</t>
-  </si>
-  <si>
-    <t>Lagkadás</t>
-  </si>
-  <si>
-    <t>Mourniés</t>
-  </si>
-  <si>
-    <t>Árgos Orestikó</t>
-  </si>
-  <si>
-    <t>Elassóna</t>
-  </si>
-  <si>
-    <t>Chalástra</t>
-  </si>
-  <si>
-    <t>Néa Kallikráteia</t>
-  </si>
-  <si>
-    <t>Karpenísi</t>
-  </si>
-  <si>
-    <t>Marathónas</t>
-  </si>
-  <si>
-    <t>Lávrio</t>
-  </si>
-  <si>
-    <t>Polýkastro</t>
-  </si>
-  <si>
-    <t>Litóchoro</t>
-  </si>
-  <si>
-    <t>Ámfissa</t>
-  </si>
-  <si>
-    <t>Aígina</t>
-  </si>
-  <si>
-    <t>Néo Karlovási</t>
-  </si>
-  <si>
-    <t>Káto Achaḯa</t>
-  </si>
-  <si>
-    <t>Aridaía</t>
-  </si>
-  <si>
-    <t>Ánoixi</t>
-  </si>
-  <si>
-    <t>Soúda</t>
-  </si>
-  <si>
-    <t>Kounoupidianá</t>
-  </si>
-  <si>
-    <t>Anávyssos</t>
-  </si>
-  <si>
-    <t>Polýgyros</t>
-  </si>
-  <si>
-    <t>Messíni</t>
-  </si>
-  <si>
-    <t>Néoi Epivátes</t>
-  </si>
-  <si>
-    <t>Filiatrá</t>
-  </si>
-  <si>
-    <t>Psachná</t>
-  </si>
-  <si>
-    <t>Megalópoli</t>
-  </si>
-  <si>
-    <t>Mýrina</t>
-  </si>
-  <si>
-    <t>Diónysos</t>
-  </si>
-  <si>
-    <t>Nerokoúros</t>
-  </si>
-  <si>
-    <t>Xylókastro</t>
-  </si>
-  <si>
-    <t>Fílyro</t>
-  </si>
-  <si>
-    <t>Siátista</t>
-  </si>
-  <si>
-    <t>Féres</t>
-  </si>
-  <si>
-    <t>Skýdra</t>
-  </si>
-  <si>
-    <t>Archángelos</t>
-  </si>
-  <si>
-    <t>Kremastí</t>
-  </si>
-  <si>
-    <t>Vrontádos</t>
-  </si>
-  <si>
-    <t>Tympáki</t>
-  </si>
-  <si>
-    <t>Orchomenós</t>
-  </si>
-  <si>
-    <t>Agriá</t>
-  </si>
-  <si>
-    <t>Néa Anchiálos</t>
-  </si>
-  <si>
-    <t>Kyparissía</t>
-  </si>
-  <si>
-    <t>Gargaliánoi</t>
-  </si>
-  <si>
-    <t>Ágios Athanásios</t>
-  </si>
-  <si>
-    <t>Nigríta</t>
-  </si>
-  <si>
-    <t>Skiáthos</t>
-  </si>
-  <si>
-    <t>Chortiátis</t>
-  </si>
-  <si>
-    <t>Alivéri</t>
-  </si>
-  <si>
-    <t>Tínos</t>
-  </si>
-  <si>
-    <t>Magoúla</t>
-  </si>
-  <si>
-    <t>Ampelákia</t>
-  </si>
-  <si>
-    <t>Vónitsa</t>
-  </si>
-  <si>
-    <t>Filippiáda</t>
-  </si>
-  <si>
-    <t>Alíartos</t>
-  </si>
-  <si>
-    <t>Zevgolatió</t>
-  </si>
-  <si>
-    <t>Itéa</t>
-  </si>
-  <si>
-    <t>Istiaía</t>
-  </si>
-  <si>
-    <t>Páros</t>
-  </si>
-  <si>
-    <t>Arkalochóri</t>
-  </si>
-  <si>
-    <t>Gýtheio</t>
-  </si>
-  <si>
-    <t>Néa Magnisía</t>
-  </si>
-  <si>
-    <t>Kíssamos</t>
-  </si>
-  <si>
-    <t>Vouliagméni</t>
-  </si>
-  <si>
-    <t>Aigínio</t>
-  </si>
-  <si>
-    <t>Kítsi</t>
-  </si>
-  <si>
-    <t>Schimatári</t>
-  </si>
-  <si>
-    <t>Aitolikó</t>
-  </si>
-  <si>
-    <t>Kranídi</t>
-  </si>
-  <si>
-    <t>Spétses</t>
-  </si>
-  <si>
-    <t>Andravída</t>
-  </si>
-  <si>
-    <t>Katsikás</t>
-  </si>
-  <si>
-    <t>Néa Raidestós</t>
-  </si>
-  <si>
-    <t>Neméa</t>
-  </si>
-  <si>
-    <t>Souflí</t>
-  </si>
-  <si>
-    <t>Amfilochía</t>
-  </si>
-  <si>
-    <t>Mýkonos</t>
-  </si>
-  <si>
-    <t>Vasiliká</t>
-  </si>
-  <si>
-    <t>Leonídio</t>
-  </si>
-  <si>
-    <t>Lixoúri</t>
-  </si>
-  <si>
-    <t>Leptokaryá</t>
-  </si>
-  <si>
-    <t>Stavrós</t>
-  </si>
-  <si>
-    <t>Amýntaio</t>
-  </si>
-  <si>
-    <t>Kimméria</t>
-  </si>
-  <si>
-    <t>Gouménissa</t>
-  </si>
-  <si>
-    <t>Vartholomió</t>
-  </si>
-  <si>
-    <t>Lagyná</t>
-  </si>
-  <si>
-    <t>Prosotsáni</t>
-  </si>
-  <si>
-    <t>Korinós</t>
-  </si>
-  <si>
-    <t>Krinídes</t>
-  </si>
-  <si>
-    <t>Velventós</t>
-  </si>
-  <si>
-    <t>Kapandríti</t>
-  </si>
-  <si>
-    <t>Sápes</t>
-  </si>
-  <si>
-    <t>Vracháti</t>
-  </si>
-  <si>
-    <t>Lití</t>
-  </si>
-  <si>
-    <t>Ierissós</t>
-  </si>
-  <si>
-    <t>Thásos</t>
-  </si>
-  <si>
-    <t>Mália</t>
-  </si>
-  <si>
-    <t>Néos Marmarás</t>
-  </si>
-  <si>
-    <t>Zacháro</t>
-  </si>
-  <si>
-    <t>Melíki</t>
-  </si>
-  <si>
-    <t>Kalampáki</t>
-  </si>
-  <si>
-    <t>Néa Tríglia</t>
-  </si>
-  <si>
-    <t>Sochós</t>
-  </si>
-  <si>
-    <t>Skála</t>
-  </si>
-  <si>
-    <t>Ntráfi</t>
-  </si>
-  <si>
-    <t>Maniákoi</t>
-  </si>
-  <si>
-    <t>Néa Mesimvría</t>
-  </si>
-  <si>
-    <t>Velestíno</t>
-  </si>
-  <si>
-    <t>Plomári</t>
-  </si>
-  <si>
-    <t>Ormýlia</t>
-  </si>
-  <si>
-    <t>Néo Rýsi</t>
-  </si>
-  <si>
-    <t>Kónitsa</t>
-  </si>
-  <si>
-    <t>Lefkímmi</t>
-  </si>
-  <si>
-    <t>Panaitólio</t>
-  </si>
-  <si>
-    <t>Saronída</t>
-  </si>
-  <si>
-    <t>Axioúpoli</t>
-  </si>
-  <si>
-    <t>Erythrés</t>
-  </si>
-  <si>
-    <t>Asproválta</t>
-  </si>
-  <si>
-    <t>Katochí</t>
-  </si>
-  <si>
-    <t>Neochóri</t>
-  </si>
-  <si>
-    <t>Kolindrós</t>
-  </si>
-  <si>
-    <t>Néa Výssa</t>
-  </si>
-  <si>
-    <t>Néa Kíos</t>
-  </si>
-  <si>
-    <t>Kassándreia</t>
-  </si>
-  <si>
-    <t>Kaména Voúrla</t>
-  </si>
-  <si>
-    <t>Choristí</t>
-  </si>
-  <si>
-    <t>Palaiá Fókaia</t>
-  </si>
-  <si>
-    <t>Níkiti</t>
-  </si>
-  <si>
-    <t>Kárpathos</t>
-  </si>
-  <si>
-    <t>Spercheiáda</t>
-  </si>
-  <si>
-    <t>Lechainá</t>
-  </si>
-  <si>
-    <t>Íasmos</t>
-  </si>
-  <si>
-    <t>Moláoi</t>
-  </si>
-  <si>
-    <t>Filiátes</t>
-  </si>
-  <si>
-    <t>Métsovo</t>
-  </si>
-  <si>
-    <t>Agía Marína</t>
-  </si>
-  <si>
-    <t>Paramythiá</t>
-  </si>
-  <si>
-    <t>Pýlos</t>
-  </si>
-  <si>
-    <t>Ágios Kírykos</t>
-  </si>
-  <si>
-    <t>Galatás</t>
-  </si>
-  <si>
-    <t>Káto Nevrokópi</t>
-  </si>
-  <si>
-    <t>Astakós</t>
-  </si>
-  <si>
-    <t>Sámos</t>
-  </si>
-  <si>
-    <t>Kréstena</t>
-  </si>
-  <si>
-    <t>Káto Tithoréa</t>
-  </si>
-  <si>
-    <t>Thérmo</t>
-  </si>
-  <si>
-    <t>Kalávryta</t>
-  </si>
-  <si>
-    <t>Skýros</t>
-  </si>
-  <si>
-    <t>Firá</t>
-  </si>
-  <si>
-    <t>Dístomo</t>
-  </si>
-  <si>
-    <t>Domokós</t>
-  </si>
-  <si>
-    <t>Geniséa</t>
-  </si>
-  <si>
-    <t>Kastélli</t>
-  </si>
-  <si>
-    <t>Ándros</t>
-  </si>
-  <si>
-    <t>Chalandrítsa</t>
-  </si>
-  <si>
-    <t>Néa Smýrni</t>
-  </si>
-  <si>
-    <t>Ampelókipoi</t>
-  </si>
-  <si>
-    <t>Dáfni</t>
-  </si>
-  <si>
-    <t>Ágios Dimítrios</t>
-  </si>
-  <si>
-    <t>Korydallós</t>
-  </si>
-  <si>
-    <t>Galátsi</t>
-  </si>
-  <si>
-    <t>Stavroúpoli</t>
-  </si>
-  <si>
-    <t>Kalamariá</t>
-  </si>
-  <si>
-    <t>Palaió Fáliro</t>
-  </si>
-  <si>
-    <t>Agía Varvára</t>
-  </si>
-  <si>
-    <t>Aigáleo</t>
-  </si>
-  <si>
-    <t>Ágioi Anárgyroi</t>
-  </si>
-  <si>
-    <t>Ílion</t>
-  </si>
-  <si>
-    <t>Keratsíni</t>
-  </si>
-  <si>
-    <t>Kaisarianí</t>
-  </si>
-  <si>
-    <t>Moscháto</t>
-  </si>
-  <si>
-    <t>Vrilíssia</t>
-  </si>
-  <si>
-    <t>Zográfos</t>
-  </si>
-  <si>
-    <t>Petroúpoli</t>
-  </si>
-  <si>
-    <t>Cholargós</t>
-  </si>
-  <si>
-    <t>Sykiés</t>
-  </si>
-  <si>
-    <t>Évosmos</t>
-  </si>
-  <si>
-    <t>Výronas</t>
-  </si>
-  <si>
-    <t>Agía Paraskeví</t>
-  </si>
-  <si>
-    <t>Álimos</t>
-  </si>
-  <si>
-    <t>Ilioúpoli</t>
-  </si>
-  <si>
-    <t>Melíssia</t>
-  </si>
-  <si>
-    <t>Metamórfosi</t>
-  </si>
-  <si>
-    <t>Maroúsi</t>
-  </si>
-  <si>
-    <t>Argyroúpoli</t>
-  </si>
-  <si>
-    <t>Gérakas</t>
-  </si>
-  <si>
-    <t>Psychikó</t>
-  </si>
-  <si>
-    <t>Voúla</t>
-  </si>
-  <si>
-    <t>Peraía</t>
-  </si>
-  <si>
-    <t>Chaïdári</t>
-  </si>
-  <si>
-    <t>Zákynthos</t>
-  </si>
-  <si>
-    <t>Kifisiá</t>
-  </si>
-  <si>
-    <t>Pérama</t>
-  </si>
-  <si>
-    <t>Ágios Stéfanos</t>
-  </si>
-  <si>
-    <t>Aígio</t>
-  </si>
-  <si>
-    <t>Oraiókastro</t>
-  </si>
-  <si>
-    <t>Lefkáda</t>
-  </si>
-  <si>
-    <t>Acharnés</t>
-  </si>
-  <si>
-    <t>Áno Liósia</t>
-  </si>
-  <si>
-    <t>Panórama</t>
-  </si>
-  <si>
-    <t>Árta</t>
-  </si>
-  <si>
-    <t>Gázi</t>
-  </si>
-  <si>
-    <t>Rafína</t>
-  </si>
-  <si>
-    <t>Flórina</t>
-  </si>
-  <si>
-    <t>Náxos</t>
-  </si>
-  <si>
     <t>Ptolemaḯda</t>
   </si>
   <si>
-    <t>Árgos</t>
-  </si>
-  <si>
-    <t>Moíres</t>
-  </si>
-  <si>
-    <t>Pezá</t>
-  </si>
-  <si>
-    <t>Igoumenítsa</t>
-  </si>
-  <si>
-    <t>Gastoúni</t>
-  </si>
-  <si>
-    <t>Goúrnes</t>
-  </si>
-  <si>
-    <t>Eleoúsa</t>
-  </si>
-  <si>
-    <t>Asprópyrgos</t>
-  </si>
-  <si>
-    <t>Amaliáda</t>
-  </si>
-  <si>
-    <t>Koropí</t>
-  </si>
-  <si>
-    <t>Irákleia</t>
-  </si>
-  <si>
-    <t>Kanaláki</t>
-  </si>
-  <si>
-    <t>Markópoulo</t>
-  </si>
-  <si>
-    <t>Archaía Olympía</t>
-  </si>
-  <si>
-    <t>Ierápetra</t>
-  </si>
-  <si>
-    <t>Grevená</t>
-  </si>
-  <si>
-    <t>Kalývia Thorikoú</t>
-  </si>
-  <si>
-    <t>Geráni</t>
-  </si>
-  <si>
-    <t>Mouzáki</t>
-  </si>
-  <si>
-    <t>Kárystos</t>
-  </si>
-  <si>
-    <t>Stylída</t>
-  </si>
-  <si>
-    <t>Meligalás</t>
-  </si>
-  <si>
-    <t>Oropós</t>
-  </si>
-  <si>
-    <t>Agiá</t>
-  </si>
-  <si>
-    <t>Mesolóngi</t>
-  </si>
-  <si>
-    <t>Palamás</t>
-  </si>
-  <si>
-    <t>Loutráki</t>
-  </si>
-  <si>
-    <t>Erétria</t>
-  </si>
-  <si>
-    <t>Péta</t>
-  </si>
-  <si>
-    <t>Sofádes</t>
-  </si>
-  <si>
-    <t>Eleftheroúpoli</t>
-  </si>
-  <si>
-    <t>Fillýra</t>
-  </si>
-  <si>
-    <t>Náousa</t>
-  </si>
-  <si>
-    <t>Évlalo</t>
-  </si>
-  <si>
-    <t>Pýli</t>
-  </si>
-  <si>
-    <t>Gáios</t>
-  </si>
-  <si>
-    <t>Póros</t>
-  </si>
-  <si>
-    <t>Chrysó</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>Agkístri</t>
-  </si>
-  <si>
-    <t>Farkadóna</t>
-  </si>
-  <si>
-    <t>Pátmos</t>
-  </si>
-  <si>
-    <t>Mándra</t>
-  </si>
-  <si>
-    <t>Smínthi</t>
-  </si>
-  <si>
-    <t>Zagorá</t>
-  </si>
-  <si>
-    <t>Kardamýli</t>
-  </si>
-  <si>
-    <t>Atalánti</t>
-  </si>
-  <si>
-    <t>Ágioi Déka</t>
-  </si>
-  <si>
-    <t>Néa Zíchni</t>
-  </si>
-  <si>
-    <t>Elafónisos</t>
-  </si>
-  <si>
-    <t>Tzermiádo</t>
-  </si>
-  <si>
-    <t>Kalpáki</t>
-  </si>
-  <si>
-    <t>Sidirókastro</t>
-  </si>
-  <si>
-    <t>Itháki</t>
-  </si>
-  <si>
-    <t>Límni</t>
-  </si>
-  <si>
-    <t>Leipsoí</t>
-  </si>
-  <si>
-    <t>Megísti</t>
-  </si>
-  <si>
-    <t>Oinoússes</t>
-  </si>
-  <si>
-    <t>Skópelos</t>
-  </si>
-  <si>
-    <t>Spíli</t>
-  </si>
-  <si>
-    <t>Áno Sýros</t>
-  </si>
-  <si>
-    <t>Prámanta</t>
-  </si>
-  <si>
-    <t>Sými</t>
-  </si>
-  <si>
-    <t>Rodolívos</t>
-  </si>
-  <si>
-    <t>Áno Viánnos</t>
-  </si>
-  <si>
-    <t>Palaióchora</t>
-  </si>
-  <si>
-    <t>Apollonía</t>
-  </si>
-  <si>
-    <t>Agía Kyriakí</t>
-  </si>
-  <si>
-    <t>Foúrnoi</t>
-  </si>
-  <si>
-    <t>Argalastí</t>
-  </si>
-  <si>
-    <t>Ýdra</t>
-  </si>
-  <si>
-    <t>Asklipieío</t>
-  </si>
-  <si>
-    <t>Deskáti</t>
-  </si>
-  <si>
-    <t>Makrychóri</t>
-  </si>
-  <si>
-    <t>Agía Foteiní</t>
-  </si>
-  <si>
-    <t>Folégandros</t>
-  </si>
-  <si>
-    <t>Vrýses</t>
-  </si>
-  <si>
-    <t>Mandráki</t>
-  </si>
-  <si>
-    <t>Antíparos</t>
-  </si>
-  <si>
-    <t>Anógeia</t>
-  </si>
-  <si>
-    <t>Morfovoúni</t>
-  </si>
-  <si>
-    <t>Kýthira</t>
-  </si>
-  <si>
-    <t>Lidoríki</t>
-  </si>
-  <si>
-    <t>Alónnisos</t>
-  </si>
-  <si>
-    <t>Sérifos</t>
-  </si>
-  <si>
-    <t>Íos</t>
-  </si>
-  <si>
-    <t>Vourgaréli</t>
-  </si>
-  <si>
-    <t>Kímolos</t>
-  </si>
-  <si>
-    <t>Samothráki</t>
-  </si>
-  <si>
-    <t>Frý</t>
-  </si>
-  <si>
-    <t>Kýthnos</t>
-  </si>
-  <si>
-    <t>Kerasochóri</t>
-  </si>
-  <si>
-    <t>Ioulída</t>
-  </si>
-  <si>
-    <t>Chálki</t>
-  </si>
-  <si>
-    <t>Megálo Chorió</t>
-  </si>
-  <si>
-    <t>Astypálaia</t>
-  </si>
-  <si>
-    <t>Asprángeloi</t>
-  </si>
-  <si>
-    <t>Dimitsána</t>
-  </si>
-  <si>
-    <t>Anthiró</t>
-  </si>
-  <si>
-    <t>Amorgós</t>
-  </si>
-  <si>
-    <t>Áno Kalentíni</t>
-  </si>
-  <si>
-    <t>Psará</t>
-  </si>
-  <si>
-    <t>Mílos</t>
-  </si>
-  <si>
-    <t>Laimós</t>
-  </si>
-  <si>
-    <t>Anáfi</t>
-  </si>
-  <si>
-    <t>Ágios Efstrátios</t>
-  </si>
-  <si>
-    <t>Síkinos</t>
-  </si>
-  <si>
-    <t>Chóra Sfakíon</t>
-  </si>
-  <si>
-    <t>Nestório</t>
-  </si>
-  <si>
-    <t>Paranésti</t>
-  </si>
-  <si>
-    <t>Kastrí</t>
+    <t>Patra</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>Irakleio</t>
+  </si>
+  <si>
+    <t>Glyfada</t>
+  </si>
+  <si>
+    <t>Chalandri</t>
+  </si>
+  <si>
+    <t>Kalamata</t>
+  </si>
+  <si>
+    <t>Ioannina</t>
+  </si>
+  <si>
+    <t>Xanthi</t>
+  </si>
+  <si>
+    <t>Kavala</t>
+  </si>
+  <si>
+    <t>Chania</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Kozani</t>
+  </si>
+  <si>
+    <t>Giannitsa</t>
+  </si>
+  <si>
+    <t>Livadeia</t>
+  </si>
+  <si>
+    <t>Orestiada</t>
+  </si>
+  <si>
+    <t>Sparti</t>
+  </si>
+  <si>
+    <t>Alexandreia</t>
+  </si>
+  <si>
+    <t>Nafplio</t>
+  </si>
+  <si>
+    <t>Nafpaktos</t>
+  </si>
+  <si>
+    <t>Kastoria</t>
+  </si>
+  <si>
+    <t>Kalymnos</t>
+  </si>
+  <si>
+    <t>Diavata</t>
+  </si>
+  <si>
+    <t>Kiato</t>
+  </si>
+  <si>
+    <t>Farsala</t>
+  </si>
+  <si>
+    <t>Spata</t>
+  </si>
+  <si>
+    <t>Kalampaka</t>
+  </si>
+  <si>
+    <t>Koufalia</t>
+  </si>
+  <si>
+    <t>Giannouli</t>
+  </si>
+  <si>
+    <t>Lagkadas</t>
+  </si>
+  <si>
+    <t>Chalastra</t>
+  </si>
+  <si>
+    <t>Lavrio</t>
+  </si>
+  <si>
+    <t>amfissa</t>
+  </si>
+  <si>
+    <t>anoixi</t>
+  </si>
+  <si>
+    <t>Kounoupidiana</t>
+  </si>
+  <si>
+    <t>Anavyssos</t>
+  </si>
+  <si>
+    <t>Filiatra</t>
+  </si>
+  <si>
+    <t>Psachna</t>
+  </si>
+  <si>
+    <t>Siatista</t>
+  </si>
+  <si>
+    <t>Archangelos</t>
+  </si>
+  <si>
+    <t>Vrontados</t>
+  </si>
+  <si>
+    <t>Tympaki</t>
+  </si>
+  <si>
+    <t>Agria</t>
+  </si>
+  <si>
+    <t>Gargalianoi</t>
+  </si>
+  <si>
+    <t>agios Athanasios</t>
+  </si>
+  <si>
+    <t>Skiathos</t>
+  </si>
+  <si>
+    <t>Chortiatis</t>
+  </si>
+  <si>
+    <t>Ampelakia</t>
+  </si>
+  <si>
+    <t>Filippiada</t>
+  </si>
+  <si>
+    <t>Paros</t>
+  </si>
+  <si>
+    <t>Schimatari</t>
+  </si>
+  <si>
+    <t>Katsikas</t>
+  </si>
+  <si>
+    <t>Vasilika</t>
+  </si>
+  <si>
+    <t>Leptokarya</t>
+  </si>
+  <si>
+    <t>Lagyna</t>
+  </si>
+  <si>
+    <t>Prosotsani</t>
+  </si>
+  <si>
+    <t>Sapes</t>
+  </si>
+  <si>
+    <t>Vrachati</t>
+  </si>
+  <si>
+    <t>Thasos</t>
+  </si>
+  <si>
+    <t>Malia</t>
+  </si>
+  <si>
+    <t>Zacharo</t>
+  </si>
+  <si>
+    <t>Kalampaki</t>
+  </si>
+  <si>
+    <t>Skala</t>
+  </si>
+  <si>
+    <t>Ntrafi</t>
+  </si>
+  <si>
+    <t>Maniakoi</t>
+  </si>
+  <si>
+    <t>Plomari</t>
+  </si>
+  <si>
+    <t>Asprovalta</t>
+  </si>
+  <si>
+    <t>Kassandreia</t>
+  </si>
+  <si>
+    <t>Karpathos</t>
+  </si>
+  <si>
+    <t>Spercheiada</t>
+  </si>
+  <si>
+    <t>Lechaina</t>
+  </si>
+  <si>
+    <t>Molaoi</t>
+  </si>
+  <si>
+    <t>Filiates</t>
+  </si>
+  <si>
+    <t>Paramythia</t>
+  </si>
+  <si>
+    <t>Galatas</t>
+  </si>
+  <si>
+    <t>Samos</t>
+  </si>
+  <si>
+    <t>Kalavryta</t>
+  </si>
+  <si>
+    <t>Fira</t>
+  </si>
+  <si>
+    <t>andros</t>
+  </si>
+  <si>
+    <t>Dafni</t>
+  </si>
+  <si>
+    <t>Galatsi</t>
+  </si>
+  <si>
+    <t>Kalamaria</t>
+  </si>
+  <si>
+    <t>Aigaleo</t>
+  </si>
+  <si>
+    <t>agioi Anargyroi</t>
+  </si>
+  <si>
+    <t>Moschato</t>
+  </si>
+  <si>
+    <t>Zografos</t>
+  </si>
+  <si>
+    <t>alimos</t>
+  </si>
+  <si>
+    <t>Zakynthos</t>
+  </si>
+  <si>
+    <t>Kifisia</t>
+  </si>
+  <si>
+    <t>Lefkada</t>
+  </si>
+  <si>
+    <t>arta</t>
+  </si>
+  <si>
+    <t>Gazi</t>
+  </si>
+  <si>
+    <t>Naxos</t>
+  </si>
+  <si>
+    <t>argos</t>
+  </si>
+  <si>
+    <t>Peza</t>
+  </si>
+  <si>
+    <t>Amaliada</t>
+  </si>
+  <si>
+    <t>Irakleia</t>
+  </si>
+  <si>
+    <t>Kanalaki</t>
+  </si>
+  <si>
+    <t>Ierapetra</t>
+  </si>
+  <si>
+    <t>Grevena</t>
+  </si>
+  <si>
+    <t>Gerani</t>
+  </si>
+  <si>
+    <t>Mouzaki</t>
+  </si>
+  <si>
+    <t>Karystos</t>
+  </si>
+  <si>
+    <t>Meligalas</t>
+  </si>
+  <si>
+    <t>Agia</t>
+  </si>
+  <si>
+    <t>Palamas</t>
+  </si>
+  <si>
+    <t>Loutraki</t>
+  </si>
+  <si>
+    <t>Sofades</t>
+  </si>
+  <si>
+    <t>Naousa</t>
+  </si>
+  <si>
+    <t>Gaios</t>
+  </si>
+  <si>
+    <t>Patmos</t>
+  </si>
+  <si>
+    <t>Mandra</t>
+  </si>
+  <si>
+    <t>Zagora</t>
+  </si>
+  <si>
+    <t>Atalanti</t>
+  </si>
+  <si>
+    <t>Tzermiado</t>
+  </si>
+  <si>
+    <t>Kalpaki</t>
+  </si>
+  <si>
+    <t>Ithaki</t>
+  </si>
+  <si>
+    <t>Pramanta</t>
+  </si>
+  <si>
+    <t>ano Viannos</t>
+  </si>
+  <si>
+    <t>Deskati</t>
+  </si>
+  <si>
+    <t>Mandraki</t>
+  </si>
+  <si>
+    <t>Samothraki</t>
+  </si>
+  <si>
+    <t>Chalki</t>
+  </si>
+  <si>
+    <t>Astypalaia</t>
+  </si>
+  <si>
+    <t>Asprangeloi</t>
+  </si>
+  <si>
+    <t>Dimitsana</t>
+  </si>
+  <si>
+    <t>Psara</t>
+  </si>
+  <si>
+    <t>Anafi</t>
+  </si>
+  <si>
+    <t>agios Efstratios</t>
+  </si>
+  <si>
+    <t>Peristeri</t>
+  </si>
+  <si>
+    <t>Kallithea</t>
+  </si>
+  <si>
+    <t>Serres</t>
+  </si>
+  <si>
+    <t>Veroia</t>
+  </si>
+  <si>
+    <t>Rethymno</t>
+  </si>
+  <si>
+    <t>Nea Filadelfeia</t>
+  </si>
+  <si>
+    <t>Kerkyra</t>
+  </si>
+  <si>
+    <t>Megara</t>
+  </si>
+  <si>
+    <t>Pefki</t>
+  </si>
+  <si>
+    <t>Preveza</t>
+  </si>
+  <si>
+    <t>edessa</t>
+  </si>
+  <si>
+    <t>Thermi</t>
+  </si>
+  <si>
+    <t>Nea Artaki</t>
+  </si>
+  <si>
+    <t>Nea Moudania</t>
+  </si>
+  <si>
+    <t>Nea Peramos</t>
+  </si>
+  <si>
+    <t>Mournies</t>
+  </si>
+  <si>
+    <t>Nea Kallikrateia</t>
+  </si>
+  <si>
+    <t>Neo Karlovasi</t>
+  </si>
+  <si>
+    <t>Neoi Epivates</t>
+  </si>
+  <si>
+    <t>Feres</t>
+  </si>
+  <si>
+    <t>Nea Anchialos</t>
+  </si>
+  <si>
+    <t>Aliveri</t>
+  </si>
+  <si>
+    <t>Itea</t>
+  </si>
+  <si>
+    <t>Vouliagmeni</t>
+  </si>
+  <si>
+    <t>Spetses</t>
+  </si>
+  <si>
+    <t>Nemea</t>
+  </si>
+  <si>
+    <t>Kimmeria</t>
+  </si>
+  <si>
+    <t>Goumenissa</t>
+  </si>
+  <si>
+    <t>Neos Marmaras</t>
+  </si>
+  <si>
+    <t>Erythres</t>
+  </si>
+  <si>
+    <t>Metsovo</t>
+  </si>
+  <si>
+    <t>Krestena</t>
+  </si>
+  <si>
+    <t>Kato Tithorea</t>
+  </si>
+  <si>
+    <t>Thermo</t>
+  </si>
+  <si>
+    <t>Genisea</t>
+  </si>
+  <si>
+    <t>Kastelli</t>
+  </si>
+  <si>
+    <t>Sykies</t>
+  </si>
+  <si>
+    <t>evosmos</t>
+  </si>
+  <si>
+    <t>Gerakas</t>
+  </si>
+  <si>
+    <t>Perama</t>
+  </si>
+  <si>
+    <t>agios Stefanos</t>
+  </si>
+  <si>
+    <t>Acharnes</t>
+  </si>
+  <si>
+    <t>Eretria</t>
+  </si>
+  <si>
+    <t>Peta</t>
+  </si>
+  <si>
+    <t>evlalo</t>
+  </si>
+  <si>
+    <t>Servia</t>
+  </si>
+  <si>
+    <t>agioi Deka</t>
+  </si>
+  <si>
+    <t>Folegandros</t>
+  </si>
+  <si>
+    <t>Serifos</t>
+  </si>
+  <si>
+    <t>Vourgareli</t>
+  </si>
+  <si>
+    <t>Paranesti</t>
+  </si>
+  <si>
+    <t>Thessaloniki</t>
+  </si>
+  <si>
+    <t>Nikaia</t>
+  </si>
+  <si>
+    <t>Nea Ionia</t>
+  </si>
+  <si>
+    <t>Trikala</t>
+  </si>
+  <si>
+    <t>Chalkida</t>
+  </si>
+  <si>
+    <t>Katerini</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Komotini</t>
+  </si>
+  <si>
+    <t>Agrinio</t>
+  </si>
+  <si>
+    <t>Karditsa</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Mytilini</t>
+  </si>
+  <si>
+    <t>Chios</t>
+  </si>
+  <si>
+    <t>Salamina</t>
+  </si>
+  <si>
+    <t>Elefsina</t>
+  </si>
+  <si>
+    <t>Kilkis</t>
+  </si>
+  <si>
+    <t>Paiania</t>
+  </si>
+  <si>
+    <t>Anatoli</t>
+  </si>
+  <si>
+    <t>Siteia</t>
+  </si>
+  <si>
+    <t>Sindos</t>
+  </si>
+  <si>
+    <t>Epanomi</t>
+  </si>
+  <si>
+    <t>Karpenisi</t>
+  </si>
+  <si>
+    <t>Aigina</t>
+  </si>
+  <si>
+    <t>Aridaia</t>
+  </si>
+  <si>
+    <t>Messini</t>
+  </si>
+  <si>
+    <t>Filyro</t>
+  </si>
+  <si>
+    <t>Kremasti</t>
+  </si>
+  <si>
+    <t>Kyparissia</t>
+  </si>
+  <si>
+    <t>Nigrita</t>
+  </si>
+  <si>
+    <t>Tinos</t>
+  </si>
+  <si>
+    <t>Aliartos</t>
+  </si>
+  <si>
+    <t>Istiaia</t>
+  </si>
+  <si>
+    <t>Nea Magnisia</t>
+  </si>
+  <si>
+    <t>Kissamos</t>
+  </si>
+  <si>
+    <t>Aiginio</t>
+  </si>
+  <si>
+    <t>Kitsi</t>
+  </si>
+  <si>
+    <t>Kranidi</t>
+  </si>
+  <si>
+    <t>Andravida</t>
+  </si>
+  <si>
+    <t>Soufli</t>
+  </si>
+  <si>
+    <t>Amfilochia</t>
+  </si>
+  <si>
+    <t>Leonidio</t>
+  </si>
+  <si>
+    <t>Krinides</t>
+  </si>
+  <si>
+    <t>Kapandriti</t>
+  </si>
+  <si>
+    <t>Liti</t>
+  </si>
+  <si>
+    <t>Meliki</t>
+  </si>
+  <si>
+    <t>Nea Triglia</t>
+  </si>
+  <si>
+    <t>Nea Mesimvria</t>
+  </si>
+  <si>
+    <t>Velestino</t>
+  </si>
+  <si>
+    <t>Lefkimmi</t>
+  </si>
+  <si>
+    <t>Saronida</t>
+  </si>
+  <si>
+    <t>Katochi</t>
+  </si>
+  <si>
+    <t>Nea Kios</t>
+  </si>
+  <si>
+    <t>Choristi</t>
+  </si>
+  <si>
+    <t>Nikiti</t>
+  </si>
+  <si>
+    <t>iasmos</t>
+  </si>
+  <si>
+    <t>Agia Marina</t>
+  </si>
+  <si>
+    <t>agios Kirykos</t>
+  </si>
+  <si>
+    <t>Distomo</t>
+  </si>
+  <si>
+    <t>Chalandritsa</t>
+  </si>
+  <si>
+    <t>agios Dimitrios</t>
+  </si>
+  <si>
+    <t>Agia Varvara</t>
+  </si>
+  <si>
+    <t>ilion</t>
+  </si>
+  <si>
+    <t>Keratsini</t>
+  </si>
+  <si>
+    <t>Kaisariani</t>
+  </si>
+  <si>
+    <t>Vrilissia</t>
+  </si>
+  <si>
+    <t>Agia Paraskevi</t>
+  </si>
+  <si>
+    <t>Melissia</t>
+  </si>
+  <si>
+    <t>Peraia</t>
+  </si>
+  <si>
+    <t>Aigio</t>
+  </si>
+  <si>
+    <t>Rafina</t>
+  </si>
+  <si>
+    <t>Moires</t>
+  </si>
+  <si>
+    <t>Igoumenitsa</t>
+  </si>
+  <si>
+    <t>Koropi</t>
+  </si>
+  <si>
+    <t>Archaia Olympia</t>
+  </si>
+  <si>
+    <t>Stylida</t>
+  </si>
+  <si>
+    <t>Agkistri</t>
+  </si>
+  <si>
+    <t>Sminthi</t>
+  </si>
+  <si>
+    <t>Nea Zichni</t>
+  </si>
+  <si>
+    <t>Limni</t>
+  </si>
+  <si>
+    <t>Leipsoi</t>
+  </si>
+  <si>
+    <t>Megisti</t>
+  </si>
+  <si>
+    <t>Spili</t>
+  </si>
+  <si>
+    <t>Rodolivos</t>
+  </si>
+  <si>
+    <t>Apollonia</t>
+  </si>
+  <si>
+    <t>Agia Kyriaki</t>
+  </si>
+  <si>
+    <t>Argalasti</t>
+  </si>
+  <si>
+    <t>Asklipieio</t>
+  </si>
+  <si>
+    <t>Agia Foteini</t>
+  </si>
+  <si>
+    <t>Antiparos</t>
+  </si>
+  <si>
+    <t>Lidoriki</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>Kimolos</t>
+  </si>
+  <si>
+    <t>Ioulida</t>
+  </si>
+  <si>
+    <t>ano Kalentini</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Sikinos</t>
+  </si>
+  <si>
+    <t>Kastri</t>
+  </si>
+  <si>
+    <t>Alexandroupoli</t>
+  </si>
+  <si>
+    <t>Ermoupoli</t>
+  </si>
+  <si>
+    <t>Chrysoupoli</t>
+  </si>
+  <si>
+    <t>Souda</t>
+  </si>
+  <si>
+    <t>Nerokouros</t>
+  </si>
+  <si>
+    <t>Magoula</t>
+  </si>
+  <si>
+    <t>Lixouri</t>
+  </si>
+  <si>
+    <t>Axioupoli</t>
+  </si>
+  <si>
+    <t>Kamena Vourla</t>
+  </si>
+  <si>
+    <t>Stavroupoli</t>
+  </si>
+  <si>
+    <t>Petroupoli</t>
+  </si>
+  <si>
+    <t>Ilioupoli</t>
+  </si>
+  <si>
+    <t>Marousi</t>
+  </si>
+  <si>
+    <t>Argyroupoli</t>
+  </si>
+  <si>
+    <t>Voula</t>
+  </si>
+  <si>
+    <t>Gastouni</t>
+  </si>
+  <si>
+    <t>Gournes</t>
+  </si>
+  <si>
+    <t>Eleousa</t>
+  </si>
+  <si>
+    <t>Eleftheroupoli</t>
+  </si>
+  <si>
+    <t>Oinousses</t>
+  </si>
+  <si>
+    <t>Fournoi</t>
+  </si>
+  <si>
+    <t>Morfovouni</t>
+  </si>
+  <si>
+    <t>Volos</t>
+  </si>
+  <si>
+    <t>Rodos</t>
+  </si>
+  <si>
+    <t>Korinthos</t>
+  </si>
+  <si>
+    <t>agios Nikolaos</t>
+  </si>
+  <si>
+    <t>Argostoli</t>
+  </si>
+  <si>
+    <t>Lykovrysi</t>
+  </si>
+  <si>
+    <t>Porto Rafti</t>
+  </si>
+  <si>
+    <t>Didymoteicho</t>
+  </si>
+  <si>
+    <t>Almyros</t>
+  </si>
+  <si>
+    <t>argos Orestiko</t>
+  </si>
+  <si>
+    <t>Elassona</t>
+  </si>
+  <si>
+    <t>Marathonas</t>
+  </si>
+  <si>
+    <t>Litochoro</t>
+  </si>
+  <si>
+    <t>Megalopoli</t>
+  </si>
+  <si>
+    <t>Dionysos</t>
+  </si>
+  <si>
+    <t>Xylokastro</t>
+  </si>
+  <si>
+    <t>Orchomenos</t>
+  </si>
+  <si>
+    <t>Vonitsa</t>
+  </si>
+  <si>
+    <t>Zevgolatio</t>
+  </si>
+  <si>
+    <t>Arkalochori</t>
+  </si>
+  <si>
+    <t>Aitoliko</t>
+  </si>
+  <si>
+    <t>Nea Raidestos</t>
+  </si>
+  <si>
+    <t>Stavros</t>
+  </si>
+  <si>
+    <t>Vartholomio</t>
+  </si>
+  <si>
+    <t>Korinos</t>
+  </si>
+  <si>
+    <t>Velventos</t>
+  </si>
+  <si>
+    <t>Ierissos</t>
+  </si>
+  <si>
+    <t>Sochos</t>
+  </si>
+  <si>
+    <t>Konitsa</t>
+  </si>
+  <si>
+    <t>Panaitolio</t>
+  </si>
+  <si>
+    <t>Neochori</t>
+  </si>
+  <si>
+    <t>Kolindros</t>
+  </si>
+  <si>
+    <t>Palaia Fokaia</t>
+  </si>
+  <si>
+    <t>Kato Nevrokopi</t>
+  </si>
+  <si>
+    <t>Astakos</t>
+  </si>
+  <si>
+    <t>Domokos</t>
+  </si>
+  <si>
+    <t>Ampelokipoi</t>
+  </si>
+  <si>
+    <t>Korydallos</t>
+  </si>
+  <si>
+    <t>Palaio Faliro</t>
+  </si>
+  <si>
+    <t>Cholargos</t>
+  </si>
+  <si>
+    <t>Metamorfosi</t>
+  </si>
+  <si>
+    <t>Psychiko</t>
+  </si>
+  <si>
+    <t>Oraiokastro</t>
+  </si>
+  <si>
+    <t>ano Liosia</t>
+  </si>
+  <si>
+    <t>Panorama</t>
+  </si>
+  <si>
+    <t>Florina</t>
+  </si>
+  <si>
+    <t>Aspropyrgos</t>
+  </si>
+  <si>
+    <t>Markopoulo</t>
+  </si>
+  <si>
+    <t>Oropos</t>
+  </si>
+  <si>
+    <t>Mesolongi</t>
+  </si>
+  <si>
+    <t>Poros</t>
+  </si>
+  <si>
+    <t>Chryso</t>
+  </si>
+  <si>
+    <t>Farkadona</t>
+  </si>
+  <si>
+    <t>Elafonisos</t>
+  </si>
+  <si>
+    <t>Sidirokastro</t>
+  </si>
+  <si>
+    <t>Skopelos</t>
+  </si>
+  <si>
+    <t>Palaiochora</t>
+  </si>
+  <si>
+    <t>Makrychori</t>
+  </si>
+  <si>
+    <t>Anogeia</t>
+  </si>
+  <si>
+    <t>Alonnisos</t>
+  </si>
+  <si>
+    <t>Kerasochori</t>
+  </si>
+  <si>
+    <t>Megalo Chorio</t>
+  </si>
+  <si>
+    <t>Anthiro</t>
+  </si>
+  <si>
+    <t>Amorgos</t>
+  </si>
+  <si>
+    <t>Laimos</t>
+  </si>
+  <si>
+    <t>Chora Sfakion</t>
+  </si>
+  <si>
+    <t>Nestorio</t>
+  </si>
+  <si>
+    <t>Pyrgos</t>
+  </si>
+  <si>
+    <t>Tyrnavos</t>
+  </si>
+  <si>
+    <t>Zefyri</t>
+  </si>
+  <si>
+    <t>Polykastro</t>
+  </si>
+  <si>
+    <t>Polygyros</t>
+  </si>
+  <si>
+    <t>Myrina</t>
+  </si>
+  <si>
+    <t>Skydra</t>
+  </si>
+  <si>
+    <t>Gytheio</t>
+  </si>
+  <si>
+    <t>Mykonos</t>
+  </si>
+  <si>
+    <t>Amyntaio</t>
+  </si>
+  <si>
+    <t>Ormylia</t>
+  </si>
+  <si>
+    <t>Neo Rysi</t>
+  </si>
+  <si>
+    <t>Nea Vyssa</t>
+  </si>
+  <si>
+    <t>Pylos</t>
+  </si>
+  <si>
+    <t>Skyros</t>
+  </si>
+  <si>
+    <t>Nea Smyrni</t>
+  </si>
+  <si>
+    <t>Vyronas</t>
+  </si>
+  <si>
+    <t>Kalyvia Thorikou</t>
+  </si>
+  <si>
+    <t>Fillyra</t>
+  </si>
+  <si>
+    <t>Pyli</t>
+  </si>
+  <si>
+    <t>Kardamyli</t>
+  </si>
+  <si>
+    <t>ano Syros</t>
+  </si>
+  <si>
+    <t>Symi</t>
+  </si>
+  <si>
+    <t>ydra</t>
+  </si>
+  <si>
+    <t>Vryses</t>
+  </si>
+  <si>
+    <t>Kythira</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>Kythnos</t>
+  </si>
+  <si>
+    <t>Kato Achaia</t>
+  </si>
+  <si>
+    <t>Chaidari</t>
+  </si>
+  <si>
+    <t>Attiki</t>
+  </si>
+  <si>
+    <t>Kentriki Makedonia</t>
+  </si>
+  <si>
+    <t>Thessalia</t>
+  </si>
+  <si>
+    <t>Kriti</t>
+  </si>
+  <si>
+    <t>Peloponnisos</t>
+  </si>
+  <si>
+    <t>ipeiros</t>
+  </si>
+  <si>
+    <t>Notio Aigaio</t>
+  </si>
+  <si>
+    <t>Dytiki Makedonia</t>
+  </si>
+  <si>
+    <t>Voreio Aigaio</t>
+  </si>
+  <si>
+    <t>Ionia Nisia</t>
+  </si>
+  <si>
+    <t>Dytiki Ellada</t>
+  </si>
+  <si>
+    <t>Sterea Ellada</t>
+  </si>
+  <si>
+    <t>Anatoliki Makedonia kai Thraki</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2135,7 +2140,7 @@
         <v>23.716100000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E2">
         <v>664046</v>
@@ -2152,7 +2157,7 @@
         <v>23.7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E3">
         <v>466065</v>
@@ -2160,7 +2165,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>40.633299999999998</v>
@@ -2169,7 +2174,7 @@
         <v>22.95</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E4">
         <v>315196</v>
@@ -2177,7 +2182,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>38.25</v>
@@ -2186,7 +2191,7 @@
         <v>21.7333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E5">
         <v>167446</v>
@@ -2194,7 +2199,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>39.638500000000001</v>
@@ -2203,7 +2208,7 @@
         <v>22.4131</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E6">
         <v>144651</v>
@@ -2211,7 +2216,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>35.333300000000001</v>
@@ -2220,7 +2225,7 @@
         <v>25.133299999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E7">
         <v>140730</v>
@@ -2228,7 +2233,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B8">
         <v>38.0167</v>
@@ -2237,7 +2242,7 @@
         <v>23.683299999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E8">
         <v>139981</v>
@@ -2245,7 +2250,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B9">
         <v>37.950000000000003</v>
@@ -2254,7 +2259,7 @@
         <v>23.7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E9">
         <v>100641</v>
@@ -2262,7 +2267,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="B10">
         <v>37.966700000000003</v>
@@ -2271,7 +2276,7 @@
         <v>23.633299999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E10">
         <v>89380</v>
@@ -2279,7 +2284,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>37.880000000000003</v>
@@ -2288,7 +2293,7 @@
         <v>23.753299999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E11">
         <v>87305</v>
@@ -2296,7 +2301,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="B12">
         <v>39.3611</v>
@@ -2305,7 +2310,7 @@
         <v>22.942499999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E12">
         <v>86046</v>
@@ -2313,7 +2318,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>38.0167</v>
@@ -2322,7 +2327,7 @@
         <v>23.8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E13">
         <v>74192</v>
@@ -2330,7 +2335,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>37.038899999999998</v>
@@ -2339,7 +2344,7 @@
         <v>22.1142</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E14">
         <v>71823</v>
@@ -2347,7 +2352,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>38.033299999999997</v>
@@ -2356,7 +2361,7 @@
         <v>23.75</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E15">
         <v>67134</v>
@@ -2364,7 +2369,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>39.664700000000003</v>
@@ -2373,7 +2378,7 @@
         <v>20.851900000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E16">
         <v>65574</v>
@@ -2381,7 +2386,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>39.549999999999997</v>
@@ -2390,7 +2395,7 @@
         <v>21.7667</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E17">
         <v>61653</v>
@@ -2398,7 +2403,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>38.462499999999999</v>
@@ -2407,7 +2412,7 @@
         <v>23.594999999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E18">
         <v>59125</v>
@@ -2415,7 +2420,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>41.083300000000001</v>
@@ -2424,7 +2429,7 @@
         <v>23.55</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E19">
         <v>58287</v>
@@ -2432,7 +2437,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="B20">
         <v>40.85</v>
@@ -2441,7 +2446,7 @@
         <v>25.866700000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E20">
         <v>57812</v>
@@ -2449,7 +2454,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="B21">
         <v>36.441200000000002</v>
@@ -2458,7 +2463,7 @@
         <v>28.2225</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E21">
         <v>56969</v>
@@ -2466,7 +2471,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>41.133299999999998</v>
@@ -2475,7 +2480,7 @@
         <v>24.883299999999998</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E22">
         <v>56122</v>
@@ -2483,7 +2488,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B23">
         <v>40.2667</v>
@@ -2492,7 +2497,7 @@
         <v>22.5</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E23">
         <v>55997</v>
@@ -2500,7 +2505,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>40.939599999999999</v>
@@ -2509,7 +2514,7 @@
         <v>24.4069</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E24">
         <v>54027</v>
@@ -2517,7 +2522,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>35.5167</v>
@@ -2526,7 +2531,7 @@
         <v>24.0167</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E25">
         <v>53910</v>
@@ -2534,7 +2539,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="B26">
         <v>38.897199999999998</v>
@@ -2543,7 +2548,7 @@
         <v>22.431100000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E26">
         <v>52006</v>
@@ -2551,7 +2556,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="B27">
         <v>41.116700000000002</v>
@@ -2560,7 +2565,7 @@
         <v>25.4</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E27">
         <v>50990</v>
@@ -2568,7 +2573,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="B28">
         <v>38.616700000000002</v>
@@ -2577,7 +2582,7 @@
         <v>21.4</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E28">
         <v>46899</v>
@@ -2585,7 +2590,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>41.151400000000002</v>
@@ -2594,7 +2599,7 @@
         <v>24.139199999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E29">
         <v>44823</v>
@@ -2602,7 +2607,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>40.520299999999999</v>
@@ -2611,7 +2616,7 @@
         <v>22.201899999999998</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E30">
         <v>43158</v>
@@ -2619,7 +2624,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>40.300699999999999</v>
@@ -2628,7 +2633,7 @@
         <v>21.789000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E31">
         <v>41066</v>
@@ -2636,7 +2641,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B32">
         <v>39.364699999999999</v>
@@ -2645,7 +2650,7 @@
         <v>21.921900000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E32">
         <v>38554</v>
@@ -2653,7 +2658,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B33">
         <v>35.366700000000002</v>
@@ -2662,7 +2667,7 @@
         <v>24.466699999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E33">
         <v>32468</v>
@@ -2670,7 +2675,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="B34">
         <v>37.508299999999998</v>
@@ -2679,7 +2684,7 @@
         <v>22.375</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E34">
         <v>30866</v>
@@ -2687,7 +2692,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="B35">
         <v>37.933300000000003</v>
@@ -2696,7 +2701,7 @@
         <v>22.933299999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E35">
         <v>30176</v>
@@ -2704,7 +2709,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>40.796199999999999</v>
@@ -2713,7 +2718,7 @@
         <v>22.4145</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E36">
         <v>29789</v>
@@ -2721,7 +2726,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B37">
         <v>39.111400000000003</v>
@@ -2730,7 +2735,7 @@
         <v>26.562100000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E37">
         <v>29328</v>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="B38">
         <v>38.372500000000002</v>
@@ -2747,7 +2752,7 @@
         <v>26.137499999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E38">
         <v>26850</v>
@@ -2755,7 +2760,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>38.034999999999997</v>
@@ -2764,7 +2769,7 @@
         <v>23.738099999999999</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E39">
         <v>25734</v>
@@ -2772,7 +2777,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="B40">
         <v>37.933300000000003</v>
@@ -2781,7 +2786,7 @@
         <v>23.5</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E40">
         <v>25370</v>
@@ -2789,7 +2794,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="B41">
         <v>38.041400000000003</v>
@@ -2798,7 +2803,7 @@
         <v>23.545300000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E41">
         <v>24910</v>
@@ -2806,7 +2811,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>39.623899999999999</v>
@@ -2815,7 +2820,7 @@
         <v>19.921399999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E42">
         <v>24838</v>
@@ -2823,7 +2828,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>375</v>
       </c>
       <c r="B43">
         <v>37.666699999999999</v>
@@ -2832,7 +2837,7 @@
         <v>21.433299999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E43">
         <v>24359</v>
@@ -2840,7 +2845,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B44">
         <v>38</v>
@@ -2849,7 +2854,7 @@
         <v>23.333300000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E44">
         <v>23456</v>
@@ -2857,7 +2862,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="B45">
         <v>40.995399999999997</v>
@@ -2866,7 +2871,7 @@
         <v>22.8765</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E45">
         <v>22914</v>
@@ -2874,7 +2879,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>38.066699999999997</v>
@@ -2883,7 +2888,7 @@
         <v>23.8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E46">
         <v>21415</v>
@@ -2891,7 +2896,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>38.433300000000003</v>
@@ -2900,7 +2905,7 @@
         <v>22.866700000000002</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E47">
         <v>21379</v>
@@ -2917,7 +2922,7 @@
         <v>27.1572</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E48">
         <v>19244</v>
@@ -2925,7 +2930,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="B49">
         <v>38.950000000000003</v>
@@ -2934,7 +2939,7 @@
         <v>20.75</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E49">
         <v>19042</v>
@@ -2942,7 +2947,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>41.5</v>
@@ -2951,7 +2956,7 @@
         <v>26.533300000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E50">
         <v>18426</v>
@@ -2959,7 +2964,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <v>40.799999999999997</v>
@@ -2968,7 +2973,7 @@
         <v>22.05</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E51">
         <v>18229</v>
@@ -2976,7 +2981,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>37.081899999999997</v>
@@ -2985,7 +2990,7 @@
         <v>22.4236</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E52">
         <v>16187</v>
@@ -2993,7 +2998,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B53">
         <v>40.547199999999997</v>
@@ -3002,7 +3007,7 @@
         <v>23.0197</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E53">
         <v>16004</v>
@@ -3010,7 +3015,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>40.628300000000003</v>
@@ -3019,7 +3024,7 @@
         <v>22.445399999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E54">
         <v>14821</v>
@@ -3027,7 +3032,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="B55">
         <v>37.950000000000003</v>
@@ -3036,7 +3041,7 @@
         <v>23.85</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E55">
         <v>14595</v>
@@ -3044,7 +3049,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>37.566699999999997</v>
@@ -3053,7 +3058,7 @@
         <v>22.8</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E56">
         <v>14203</v>
@@ -3061,7 +3066,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>38.3917</v>
@@ -3070,7 +3075,7 @@
         <v>21.827500000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E57">
         <v>13415</v>
@@ -3078,7 +3083,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>40.518099999999997</v>
@@ -3087,7 +3092,7 @@
         <v>21.268799999999999</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E58">
         <v>13387</v>
@@ -3095,7 +3100,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>36.9512</v>
@@ -3104,7 +3109,7 @@
         <v>26.9832</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E59">
         <v>12324</v>
@@ -3112,7 +3117,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="B60">
         <v>37.450400000000002</v>
@@ -3121,7 +3126,7 @@
         <v>24.933299999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E60">
         <v>12260</v>
@@ -3129,7 +3134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="B61">
         <v>35.1892</v>
@@ -3138,7 +3143,7 @@
         <v>25.717300000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E61">
         <v>11421</v>
@@ -3146,7 +3151,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="B62">
         <v>39.735300000000002</v>
@@ -3155,7 +3160,7 @@
         <v>22.286899999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E62">
         <v>11069</v>
@@ -3163,7 +3168,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>40.688299999999998</v>
@@ -3172,7 +3177,7 @@
         <v>22.8583</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E63">
         <v>9890</v>
@@ -3180,7 +3185,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B64">
         <v>38.011699999999998</v>
@@ -3189,7 +3194,7 @@
         <v>22.746700000000001</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E64">
         <v>9812</v>
@@ -3197,7 +3202,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="B65">
         <v>39.638599999999997</v>
@@ -3206,7 +3211,7 @@
         <v>20.866099999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E65">
         <v>9798</v>
@@ -3214,7 +3219,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="B66">
         <v>38.173900000000003</v>
@@ -3223,7 +3228,7 @@
         <v>20.488299999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E66">
         <v>9748</v>
@@ -3231,7 +3236,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="B67">
         <v>38.066699999999997</v>
@@ -3240,7 +3245,7 @@
         <v>23.783300000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E67">
         <v>9738</v>
@@ -3248,7 +3253,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="B68">
         <v>37.884399999999999</v>
@@ -3257,7 +3262,7 @@
         <v>24.012499999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E68">
         <v>9686</v>
@@ -3265,7 +3270,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="B69">
         <v>38.5167</v>
@@ -3274,7 +3279,7 @@
         <v>23.633299999999998</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E69">
         <v>9489</v>
@@ -3282,7 +3287,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="B70">
         <v>38.066699999999997</v>
@@ -3291,7 +3296,7 @@
         <v>23.716699999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E70">
         <v>9454</v>
@@ -3299,7 +3304,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="B71">
         <v>35.200000000000003</v>
@@ -3308,7 +3313,7 @@
         <v>26.1</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E71">
         <v>9348</v>
@@ -3316,7 +3321,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>40.238599999999998</v>
@@ -3325,7 +3330,7 @@
         <v>23.281400000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E72">
         <v>9342</v>
@@ -3333,7 +3338,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>39.283299999999997</v>
@@ -3342,7 +3347,7 @@
         <v>22.383299999999998</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E73">
         <v>9298</v>
@@ -3350,7 +3355,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="B74">
         <v>40.666699999999999</v>
@@ -3359,7 +3364,7 @@
         <v>22.8</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E74">
         <v>9289</v>
@@ -3367,7 +3372,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="B75">
         <v>41.35</v>
@@ -3376,7 +3381,7 @@
         <v>26.5</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E75">
         <v>9263</v>
@@ -3384,7 +3389,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B76">
         <v>37.966700000000003</v>
@@ -3393,7 +3398,7 @@
         <v>23.916699999999999</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E76">
         <v>9198</v>
@@ -3401,7 +3406,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="B77">
         <v>40.426099999999998</v>
@@ -3410,7 +3415,7 @@
         <v>22.928100000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E77">
         <v>8979</v>
@@ -3418,7 +3423,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="B78">
         <v>40.9833</v>
@@ -3427,7 +3432,7 @@
         <v>24.7</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E78">
         <v>8885</v>
@@ -3435,7 +3440,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B79">
         <v>38</v>
@@ -3444,7 +3449,7 @@
         <v>23.416699999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E79">
         <v>8333</v>
@@ -3452,7 +3457,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B80">
         <v>39.7044</v>
@@ -3461,7 +3466,7 @@
         <v>21.626899999999999</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E80">
         <v>8330</v>
@@ -3469,7 +3474,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="B81">
         <v>39.18</v>
@@ -3478,7 +3483,7 @@
         <v>22.76</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E81">
         <v>7955</v>
@@ -3486,7 +3491,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B82">
         <v>40.779200000000003</v>
@@ -3495,7 +3500,7 @@
         <v>22.576699999999999</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E82">
         <v>7850</v>
@@ -3503,7 +3508,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B83">
         <v>39.667200000000001</v>
@@ -3512,7 +3517,7 @@
         <v>22.395800000000001</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E83">
         <v>7847</v>
@@ -3520,7 +3525,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B84">
         <v>40.75</v>
@@ -3529,7 +3534,7 @@
         <v>23.066700000000001</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E84">
         <v>7764</v>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>35.484999999999999</v>
@@ -3546,7 +3551,7 @@
         <v>24.013000000000002</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E85">
         <v>7553</v>
@@ -3554,7 +3559,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="B86">
         <v>40.452500000000001</v>
@@ -3563,7 +3568,7 @@
         <v>21.258099999999999</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E86">
         <v>7473</v>
@@ -3571,7 +3576,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="B87">
         <v>39.8947</v>
@@ -3580,7 +3585,7 @@
         <v>22.188600000000001</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E87">
         <v>7338</v>
@@ -3588,7 +3593,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B88">
         <v>40.6267</v>
@@ -3597,7 +3602,7 @@
         <v>22.732199999999999</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E88">
         <v>7270</v>
@@ -3605,7 +3610,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B89">
         <v>40.313899999999997</v>
@@ -3614,7 +3619,7 @@
         <v>23.063300000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E89">
         <v>7238</v>
@@ -3622,7 +3627,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B90">
         <v>38.920299999999997</v>
@@ -3631,7 +3636,7 @@
         <v>21.783300000000001</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E90">
         <v>7183</v>
@@ -3639,7 +3644,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="B91">
         <v>38.155000000000001</v>
@@ -3648,7 +3653,7 @@
         <v>23.9636</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E91">
         <v>7170</v>
@@ -3656,7 +3661,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B92">
         <v>37.700000000000003</v>
@@ -3665,7 +3670,7 @@
         <v>24.05</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E92">
         <v>7078</v>
@@ -3673,7 +3678,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="B93">
         <v>40.995399999999997</v>
@@ -3682,7 +3687,7 @@
         <v>22.571400000000001</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E93">
         <v>7064</v>
@@ -3690,7 +3695,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="B94">
         <v>40.102800000000002</v>
@@ -3699,7 +3704,7 @@
         <v>22.506900000000002</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E94">
         <v>6995</v>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B95">
         <v>38.525300000000001</v>
@@ -3716,7 +3721,7 @@
         <v>22.375299999999999</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E95">
         <v>6919</v>
@@ -3724,7 +3729,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="B96">
         <v>37.746699999999997</v>
@@ -3733,7 +3738,7 @@
         <v>23.427499999999998</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E96">
         <v>6867</v>
@@ -3741,7 +3746,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B97">
         <v>37.791699999999999</v>
@@ -3750,7 +3755,7 @@
         <v>26.705100000000002</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E97">
         <v>6708</v>
@@ -3758,7 +3763,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="B98">
         <v>38.15</v>
@@ -3767,7 +3772,7 @@
         <v>21.55</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E98">
         <v>6618</v>
@@ -3775,7 +3780,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="B99">
         <v>40.975000000000001</v>
@@ -3784,7 +3789,7 @@
         <v>22.058299999999999</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E99">
         <v>6561</v>
@@ -3792,7 +3797,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B100">
         <v>38.133299999999998</v>
@@ -3801,7 +3806,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E100">
         <v>6510</v>
@@ -3809,7 +3814,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="B101">
         <v>35.4833</v>
@@ -3818,7 +3823,7 @@
         <v>24.066700000000001</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E101">
         <v>6358</v>
@@ -3826,7 +3831,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B102">
         <v>35.536000000000001</v>
@@ -3835,7 +3840,7 @@
         <v>24.076000000000001</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E102">
         <v>6334</v>
@@ -3843,7 +3848,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="B103">
         <v>37.7333</v>
@@ -3852,7 +3857,7 @@
         <v>23.95</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E103">
         <v>6202</v>
@@ -3860,7 +3865,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>379</v>
       </c>
       <c r="B104">
         <v>40.378300000000003</v>
@@ -3869,7 +3874,7 @@
         <v>23.4453</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E104">
         <v>6121</v>
@@ -3877,7 +3882,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>37.049999999999997</v>
@@ -3886,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E105">
         <v>6065</v>
@@ -3894,7 +3899,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B106">
         <v>40.500999999999998</v>
@@ -3903,7 +3908,7 @@
         <v>22.908999999999999</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E106">
         <v>5984</v>
@@ -3911,7 +3916,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="B107">
         <v>37.157200000000003</v>
@@ -3920,7 +3925,7 @@
         <v>21.585799999999999</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E107">
         <v>5969</v>
@@ -3928,7 +3933,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B108">
         <v>38.582799999999999</v>
@@ -3937,7 +3942,7 @@
         <v>23.6328</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E108">
         <v>5827</v>
@@ -3945,7 +3950,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="B109">
         <v>37.4</v>
@@ -3954,7 +3959,7 @@
         <v>22.133299999999998</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E109">
         <v>5748</v>
@@ -3962,7 +3967,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="B110">
         <v>39.8797</v>
@@ -3971,7 +3976,7 @@
         <v>25.074200000000001</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E110">
         <v>5711</v>
@@ -3979,7 +3984,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="B111">
         <v>38.1</v>
@@ -3988,7 +3993,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E111">
         <v>5651</v>
@@ -3996,7 +4001,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="B112">
         <v>35.4758</v>
@@ -4005,7 +4010,7 @@
         <v>24.0383</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E112">
         <v>5531</v>
@@ -4013,7 +4018,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>323</v>
       </c>
       <c r="B113">
         <v>38.066699999999997</v>
@@ -4022,7 +4027,7 @@
         <v>22.633299999999998</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E113">
         <v>5500</v>
@@ -4030,7 +4035,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="B114">
         <v>40.691099999999999</v>
@@ -4039,7 +4044,7 @@
         <v>23.004200000000001</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E114">
         <v>5495</v>
@@ -4047,7 +4052,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="B115">
         <v>40.256399999999999</v>
@@ -4056,7 +4061,7 @@
         <v>21.552199999999999</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E115">
         <v>5490</v>
@@ -4064,7 +4069,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B116">
         <v>40.893300000000004</v>
@@ -4073,7 +4078,7 @@
         <v>26.1739</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E116">
         <v>5457</v>
@@ -4081,7 +4086,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="B117">
         <v>40.7667</v>
@@ -4090,7 +4095,7 @@
         <v>22.15</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E117">
         <v>5406</v>
@@ -4098,7 +4103,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="B118">
         <v>36.216700000000003</v>
@@ -4107,7 +4112,7 @@
         <v>28.116700000000002</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E118">
         <v>5384</v>
@@ -4115,7 +4120,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="B119">
         <v>36.410499999999999</v>
@@ -4124,7 +4129,7 @@
         <v>28.1191</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E119">
         <v>5363</v>
@@ -4132,7 +4137,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B120">
         <v>38.416699999999999</v>
@@ -4141,7 +4146,7 @@
         <v>26.133299999999998</v>
       </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E120">
         <v>5323</v>
@@ -4149,7 +4154,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B121">
         <v>35.071899999999999</v>
@@ -4158,7 +4163,7 @@
         <v>24.7683</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E121">
         <v>5285</v>
@@ -4166,7 +4171,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="B122">
         <v>38.493299999999998</v>
@@ -4175,7 +4180,7 @@
         <v>22.974900000000002</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E122">
         <v>5238</v>
@@ -4183,7 +4188,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="B123">
         <v>39.340000000000003</v>
@@ -4192,7 +4197,7 @@
         <v>23.013300000000001</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E123">
         <v>5191</v>
@@ -4200,7 +4205,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B124">
         <v>39.2667</v>
@@ -4209,7 +4214,7 @@
         <v>22.816700000000001</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E124">
         <v>5132</v>
@@ -4217,7 +4222,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>37.2333</v>
@@ -4226,7 +4231,7 @@
         <v>21.666699999999999</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E125">
         <v>5131</v>
@@ -4234,7 +4239,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="B126">
         <v>37.066699999999997</v>
@@ -4243,7 +4248,7 @@
         <v>21.633299999999998</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E126">
         <v>5007</v>
@@ -4251,7 +4256,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>40.716099999999997</v>
@@ -4260,7 +4265,7 @@
         <v>22.728300000000001</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E127">
         <v>4967</v>
@@ -4268,7 +4273,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B128">
         <v>40.9133</v>
@@ -4277,7 +4282,7 @@
         <v>23.5014</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E128">
         <v>4947</v>
@@ -4285,7 +4290,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B129">
         <v>39.165199999999999</v>
@@ -4294,7 +4299,7 @@
         <v>23.4895</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E129">
         <v>4883</v>
@@ -4302,7 +4307,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B130">
         <v>40.6083</v>
@@ -4311,7 +4316,7 @@
         <v>23.102799999999998</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E130">
         <v>4873</v>
@@ -4319,7 +4324,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B131">
         <v>38.408299999999997</v>
@@ -4328,7 +4333,7 @@
         <v>24.041699999999999</v>
       </c>
       <c r="D131" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E131">
         <v>4827</v>
@@ -4336,7 +4341,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="B132">
         <v>37.537700000000001</v>
@@ -4345,7 +4350,7 @@
         <v>25.161100000000001</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E132">
         <v>4762</v>
@@ -4353,7 +4358,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="B133">
         <v>38.083300000000001</v>
@@ -4362,7 +4367,7 @@
         <v>23.5167</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E133">
         <v>4735</v>
@@ -4370,7 +4375,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="B134">
         <v>37.950000000000003</v>
@@ -4379,7 +4384,7 @@
         <v>23.5167</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E134">
         <v>4710</v>
@@ -4387,7 +4392,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="B135">
         <v>38.915300000000002</v>
@@ -4396,7 +4401,7 @@
         <v>20.891100000000002</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E135">
         <v>4703</v>
@@ -4404,7 +4409,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="B136">
         <v>39.202800000000003</v>
@@ -4413,7 +4418,7 @@
         <v>20.8842</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E136">
         <v>4619</v>
@@ -4421,7 +4426,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="B137">
         <v>38.366700000000002</v>
@@ -4430,7 +4435,7 @@
         <v>23.1</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E137">
         <v>4402</v>
@@ -4438,7 +4443,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="B138">
         <v>37.933300000000003</v>
@@ -4447,7 +4452,7 @@
         <v>22.8</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E138">
         <v>4363</v>
@@ -4455,7 +4460,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B139">
         <v>38.433300000000003</v>
@@ -4464,7 +4469,7 @@
         <v>22.433299999999999</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E139">
         <v>4362</v>
@@ -4472,7 +4477,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="B140">
         <v>38.950000000000003</v>
@@ -4481,7 +4486,7 @@
         <v>23.15</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E140">
         <v>4339</v>
@@ -4489,7 +4494,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B141">
         <v>37.085000000000001</v>
@@ -4498,7 +4503,7 @@
         <v>25.151</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E141">
         <v>4326</v>
@@ -4506,7 +4511,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="B142">
         <v>35.15</v>
@@ -4515,7 +4520,7 @@
         <v>25.2667</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E142">
         <v>4313</v>
@@ -4523,7 +4528,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>382</v>
       </c>
       <c r="B143">
         <v>36.761699999999998</v>
@@ -4532,7 +4537,7 @@
         <v>22.566099999999999</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E143">
         <v>4279</v>
@@ -4540,7 +4545,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B144">
         <v>40.687800000000003</v>
@@ -4549,7 +4554,7 @@
         <v>22.845800000000001</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E144">
         <v>4266</v>
@@ -4557,7 +4562,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="B145">
         <v>35.4833</v>
@@ -4566,7 +4571,7 @@
         <v>23.65</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E145">
         <v>4236</v>
@@ -4574,7 +4579,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B146">
         <v>37.799999999999997</v>
@@ -4583,7 +4588,7 @@
         <v>23.783300000000001</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E146">
         <v>4180</v>
@@ -4591,7 +4596,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B147">
         <v>40.502200000000002</v>
@@ -4600,7 +4605,7 @@
         <v>22.542200000000001</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E147">
         <v>4153</v>
@@ -4608,7 +4613,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B148">
         <v>37.845599999999997</v>
@@ -4617,7 +4622,7 @@
         <v>23.826699999999999</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E148">
         <v>4091</v>
@@ -4625,7 +4630,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B149">
         <v>38.35</v>
@@ -4634,7 +4639,7 @@
         <v>23.583300000000001</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E149">
         <v>4035</v>
@@ -4642,7 +4647,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="B150">
         <v>38.436900000000001</v>
@@ -4651,7 +4656,7 @@
         <v>21.3536</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E150">
         <v>4012</v>
@@ -4659,7 +4664,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="B151">
         <v>37.375</v>
@@ -4668,7 +4673,7 @@
         <v>23.158300000000001</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E151">
         <v>4006</v>
@@ -4676,7 +4681,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B152">
         <v>37.259099999999997</v>
@@ -4685,7 +4690,7 @@
         <v>23.136399999999998</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E152">
         <v>4001</v>
@@ -4693,7 +4698,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="B153">
         <v>37.905799999999999</v>
@@ -4702,7 +4707,7 @@
         <v>21.2667</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E153">
         <v>3981</v>
@@ -4710,7 +4715,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="B154">
         <v>39.622799999999998</v>
@@ -4719,7 +4724,7 @@
         <v>20.887499999999999</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E154">
         <v>3885</v>
@@ -4727,7 +4732,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="B155">
         <v>40.523899999999998</v>
@@ -4736,7 +4741,7 @@
         <v>23.050799999999999</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E155">
         <v>3869</v>
@@ -4744,7 +4749,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B156">
         <v>37.816699999999997</v>
@@ -4753,7 +4758,7 @@
         <v>22.666699999999999</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E156">
         <v>3853</v>
@@ -4761,7 +4766,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="B157">
         <v>41.194200000000002</v>
@@ -4770,7 +4775,7 @@
         <v>26.302299999999999</v>
       </c>
       <c r="D157" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E157">
         <v>3837</v>
@@ -4778,7 +4783,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="B158">
         <v>38.859200000000001</v>
@@ -4787,7 +4792,7 @@
         <v>21.175799999999999</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E158">
         <v>3827</v>
@@ -4795,7 +4800,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="B159">
         <v>37.445300000000003</v>
@@ -4804,7 +4809,7 @@
         <v>25.328700000000001</v>
       </c>
       <c r="D159" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E159">
         <v>3783</v>
@@ -4812,7 +4817,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="B160">
         <v>40.479999999999997</v>
@@ -4821,7 +4826,7 @@
         <v>23.136700000000001</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E160">
         <v>3762</v>
@@ -4829,7 +4834,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="B161">
         <v>37.166699999999999</v>
@@ -4838,7 +4843,7 @@
         <v>22.85</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E161">
         <v>3761</v>
@@ -4846,7 +4851,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="B162">
         <v>38.200000000000003</v>
@@ -4855,7 +4860,7 @@
         <v>20.433299999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E162">
         <v>3752</v>
@@ -4863,7 +4868,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="B163">
         <v>40.060299999999998</v>
@@ -4872,7 +4877,7 @@
         <v>22.561199999999999</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E163">
         <v>3700</v>
@@ -4880,7 +4885,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="B164">
         <v>40.664200000000001</v>
@@ -4889,7 +4894,7 @@
         <v>23.696100000000001</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E164">
         <v>3672</v>
@@ -4897,7 +4902,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="B165">
         <v>40.689700000000002</v>
@@ -4906,7 +4911,7 @@
         <v>21.6797</v>
       </c>
       <c r="D165" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E165">
         <v>3671</v>
@@ -4914,7 +4919,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>41.147500000000001</v>
@@ -4923,7 +4928,7 @@
         <v>24.938800000000001</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E166">
         <v>3644</v>
@@ -4931,7 +4936,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>40.948099999999997</v>
@@ -4940,7 +4945,7 @@
         <v>22.451899999999998</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E167">
         <v>3609</v>
@@ -4948,7 +4953,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="B168">
         <v>37.862200000000001</v>
@@ -4957,7 +4962,7 @@
         <v>21.2058</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E168">
         <v>3603</v>
@@ -4965,7 +4970,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B169">
         <v>40.723300000000002</v>
@@ -4974,7 +4979,7 @@
         <v>23.004999999999999</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E169">
         <v>3591</v>
@@ -4982,7 +4987,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="B170">
         <v>41.178600000000003</v>
@@ -4991,7 +4996,7 @@
         <v>23.972200000000001</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E170">
         <v>3553</v>
@@ -4999,7 +5004,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B171">
         <v>40.838900000000002</v>
@@ -5008,7 +5013,7 @@
         <v>24.303599999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E171">
         <v>3514</v>
@@ -5016,7 +5021,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B172">
         <v>40.316699999999997</v>
@@ -5025,7 +5030,7 @@
         <v>22.583300000000001</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E172">
         <v>3487</v>
@@ -5033,7 +5038,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="B173">
         <v>41.013100000000001</v>
@@ -5042,7 +5047,7 @@
         <v>24.295000000000002</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E173">
         <v>3365</v>
@@ -5050,7 +5055,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="B174">
         <v>40.2547</v>
@@ -5059,7 +5064,7 @@
         <v>22.074200000000001</v>
       </c>
       <c r="D174" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E174">
         <v>3360</v>
@@ -5067,7 +5072,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="B175">
         <v>38.216700000000003</v>
@@ -5076,7 +5081,7 @@
         <v>23.883299999999998</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E175">
         <v>3359</v>
@@ -5084,7 +5089,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="B176">
         <v>41.033299999999997</v>
@@ -5093,7 +5098,7 @@
         <v>25.7</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E176">
         <v>3351</v>
@@ -5101,7 +5106,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="B177">
         <v>37.950000000000003</v>
@@ -5110,7 +5115,7 @@
         <v>22.8</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E177">
         <v>3338</v>
@@ -5118,7 +5123,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="B178">
         <v>40.744700000000002</v>
@@ -5127,7 +5132,7 @@
         <v>22.978100000000001</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E178">
         <v>3302</v>
@@ -5135,7 +5140,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="B179">
         <v>40.398299999999999</v>
@@ -5144,7 +5149,7 @@
         <v>23.878299999999999</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E179">
         <v>3266</v>
@@ -5152,7 +5157,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="B180">
         <v>40.778100000000002</v>
@@ -5161,7 +5166,7 @@
         <v>24.709399999999999</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E180">
         <v>3234</v>
@@ -5169,7 +5174,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="B181">
         <v>35.2836</v>
@@ -5178,7 +5183,7 @@
         <v>25.462499999999999</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E181">
         <v>3224</v>
@@ -5186,7 +5191,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B182">
         <v>40.096699999999998</v>
@@ -5195,7 +5200,7 @@
         <v>23.783100000000001</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E182">
         <v>3158</v>
@@ -5203,7 +5208,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="B183">
         <v>41.075299999999999</v>
@@ -5212,7 +5217,7 @@
         <v>24.2456</v>
       </c>
       <c r="D183" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E183">
         <v>3150</v>
@@ -5220,7 +5225,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="B184">
         <v>37.4861</v>
@@ -5229,7 +5234,7 @@
         <v>21.6494</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E184">
         <v>3145</v>
@@ -5237,7 +5242,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B185">
         <v>40.274999999999999</v>
@@ -5246,7 +5251,7 @@
         <v>22.574999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E185">
         <v>3134</v>
@@ -5254,7 +5259,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="B186">
         <v>40.5167</v>
@@ -5263,7 +5268,7 @@
         <v>22.4</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E186">
         <v>3116</v>
@@ -5271,7 +5276,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="B187">
         <v>41.05</v>
@@ -5280,7 +5285,7 @@
         <v>24.183299999999999</v>
       </c>
       <c r="D187" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E187">
         <v>3110</v>
@@ -5288,7 +5293,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B188">
         <v>40.306100000000001</v>
@@ -5297,7 +5302,7 @@
         <v>23.208600000000001</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E188">
         <v>3102</v>
@@ -5305,7 +5310,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>335</v>
       </c>
       <c r="B189">
         <v>40.816400000000002</v>
@@ -5314,7 +5319,7 @@
         <v>23.354199999999999</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E189">
         <v>3094</v>
@@ -5322,7 +5327,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="B190">
         <v>36.852499999999999</v>
@@ -5331,7 +5336,7 @@
         <v>22.6661</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E190">
         <v>3067</v>
@@ -5339,7 +5344,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="B191">
         <v>38.033299999999997</v>
@@ -5348,7 +5353,7 @@
         <v>23.9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E191">
         <v>3055</v>
@@ -5356,7 +5361,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="B192">
         <v>40.501899999999999</v>
@@ -5365,7 +5370,7 @@
         <v>21.244700000000002</v>
       </c>
       <c r="D192" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="E192">
         <v>3055</v>
@@ -5373,7 +5378,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B193">
         <v>40.7517</v>
@@ -5382,7 +5387,7 @@
         <v>22.769200000000001</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E193">
         <v>3050</v>
@@ -5390,7 +5395,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B194">
         <v>39.381700000000002</v>
@@ -5399,7 +5404,7 @@
         <v>22.745000000000001</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="E194">
         <v>3044</v>
@@ -5407,7 +5412,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="B195">
         <v>38.9833</v>
@@ -5416,7 +5421,7 @@
         <v>26.366700000000002</v>
       </c>
       <c r="D195" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E195">
         <v>2996</v>
@@ -5424,7 +5429,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="B196">
         <v>40.294400000000003</v>
@@ -5433,7 +5438,7 @@
         <v>23.543299999999999</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E196">
         <v>2979</v>
@@ -5441,7 +5446,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
       <c r="B197">
         <v>40.496099999999998</v>
@@ -5450,7 +5455,7 @@
         <v>22.988099999999999</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E197">
         <v>2952</v>
@@ -5458,7 +5463,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="B198">
         <v>40.041699999999999</v>
@@ -5467,7 +5472,7 @@
         <v>20.745000000000001</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E198">
         <v>2942</v>
@@ -5475,7 +5480,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B199">
         <v>39.416699999999999</v>
@@ -5484,7 +5489,7 @@
         <v>20.066700000000001</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E199">
         <v>2935</v>
@@ -5492,7 +5497,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="B200">
         <v>38.583300000000001</v>
@@ -5501,7 +5506,7 @@
         <v>21.446100000000001</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E200">
         <v>2935</v>
@@ -5509,7 +5514,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B201">
         <v>37.7333</v>
@@ -5518,7 +5523,7 @@
         <v>23.9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E201">
         <v>2932</v>
@@ -5526,7 +5531,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="B202">
         <v>40.986699999999999</v>
@@ -5535,7 +5540,7 @@
         <v>22.541399999999999</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E202">
         <v>2897</v>
@@ -5543,7 +5548,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B203">
         <v>38.216700000000003</v>
@@ -5552,7 +5557,7 @@
         <v>23.316700000000001</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E203">
         <v>2862</v>
@@ -5560,7 +5565,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="B204">
         <v>40.719000000000001</v>
@@ -5569,7 +5574,7 @@
         <v>23.709499999999998</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E204">
         <v>2838</v>
@@ -5577,7 +5582,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B205">
         <v>38.414200000000001</v>
@@ -5586,7 +5591,7 @@
         <v>21.254200000000001</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E205">
         <v>2829</v>
@@ -5594,7 +5599,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="B206">
         <v>38.408299999999997</v>
@@ -5603,7 +5608,7 @@
         <v>21.274999999999999</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E206">
         <v>2827</v>
@@ -5611,7 +5616,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
       <c r="B207">
         <v>40.478299999999997</v>
@@ -5620,7 +5625,7 @@
         <v>22.4861</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E207">
         <v>2822</v>
@@ -5628,7 +5633,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="B208">
         <v>41.583300000000001</v>
@@ -5637,7 +5642,7 @@
         <v>26.533300000000001</v>
       </c>
       <c r="D208" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E208">
         <v>2805</v>
@@ -5645,7 +5650,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B209">
         <v>37.583300000000001</v>
@@ -5654,7 +5659,7 @@
         <v>22.7333</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E209">
         <v>2778</v>
@@ -5662,7 +5667,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B210">
         <v>40.046700000000001</v>
@@ -5671,7 +5676,7 @@
         <v>23.4161</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E210">
         <v>2775</v>
@@ -5679,7 +5684,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="B211">
         <v>38.783299999999997</v>
@@ -5688,7 +5693,7 @@
         <v>22.783300000000001</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E211">
         <v>2761</v>
@@ -5696,7 +5701,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B212">
         <v>41.13</v>
@@ -5705,7 +5710,7 @@
         <v>24.208300000000001</v>
       </c>
       <c r="D212" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E212">
         <v>2725</v>
@@ -5713,7 +5718,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="B213">
         <v>37.716700000000003</v>
@@ -5722,7 +5727,7 @@
         <v>23.95</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E213">
         <v>2713</v>
@@ -5730,7 +5735,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B214">
         <v>40.222799999999999</v>
@@ -5739,7 +5744,7 @@
         <v>23.668600000000001</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="E214">
         <v>2711</v>
@@ -5747,7 +5752,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="B215">
         <v>35.5075</v>
@@ -5756,7 +5761,7 @@
         <v>27.2136</v>
       </c>
       <c r="D215" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E215">
         <v>2707</v>
@@ -5764,7 +5769,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="B216">
         <v>38.916699999999999</v>
@@ -5773,7 +5778,7 @@
         <v>22.133299999999998</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E216">
         <v>2691</v>
@@ -5781,7 +5786,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="B217">
         <v>37.933300000000003</v>
@@ -5790,7 +5795,7 @@
         <v>21.2667</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E217">
         <v>2641</v>
@@ -5798,7 +5803,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B218">
         <v>41.127499999999998</v>
@@ -5807,7 +5812,7 @@
         <v>25.1844</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E218">
         <v>2586</v>
@@ -5815,7 +5820,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="B219">
         <v>36.804200000000002</v>
@@ -5824,7 +5829,7 @@
         <v>22.854700000000001</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E219">
         <v>2534</v>
@@ -5832,7 +5837,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="B220">
         <v>39.601100000000002</v>
@@ -5841,7 +5846,7 @@
         <v>20.311900000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E220">
         <v>2512</v>
@@ -5849,7 +5854,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="B221">
         <v>39.770299999999999</v>
@@ -5858,7 +5863,7 @@
         <v>21.183900000000001</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E221">
         <v>2503</v>
@@ -5866,7 +5871,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>37.156799999999997</v>
@@ -5875,7 +5880,7 @@
         <v>26.853300000000001</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E222">
         <v>2372</v>
@@ -5883,7 +5888,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="B223">
         <v>39.466700000000003</v>
@@ -5892,7 +5897,7 @@
         <v>20.5</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="E223">
         <v>2363</v>
@@ -5900,7 +5905,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="B224">
         <v>36.9</v>
@@ -5909,7 +5914,7 @@
         <v>21.683299999999999</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E224">
         <v>2345</v>
@@ -5917,7 +5922,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B225">
         <v>37.611400000000003</v>
@@ -5926,7 +5931,7 @@
         <v>26.293099999999999</v>
       </c>
       <c r="D225" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E225">
         <v>2218</v>
@@ -5934,7 +5939,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B226">
         <v>37.496699999999997</v>
@@ -5943,7 +5948,7 @@
         <v>23.447500000000002</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="E226">
         <v>2195</v>
@@ -5951,7 +5956,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="B227">
         <v>41.343899999999998</v>
@@ -5960,7 +5965,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D227" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E227">
         <v>2157</v>
@@ -5968,7 +5973,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="B228">
         <v>38.533299999999997</v>
@@ -5977,7 +5982,7 @@
         <v>21.083300000000001</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E228">
         <v>2000</v>
@@ -5985,7 +5990,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="B229">
         <v>37.747500000000002</v>
@@ -5994,7 +5999,7 @@
         <v>26.982500000000002</v>
       </c>
       <c r="D229" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="E229">
         <v>1888</v>
@@ -6002,7 +6007,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="B230">
         <v>37.591700000000003</v>
@@ -6011,7 +6016,7 @@
         <v>21.62</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E230">
         <v>1864</v>
@@ -6019,7 +6024,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="B231">
         <v>38.6</v>
@@ -6028,7 +6033,7 @@
         <v>22.716699999999999</v>
       </c>
       <c r="D231" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E231">
         <v>1841</v>
@@ -6036,7 +6041,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="B232">
         <v>38.573599999999999</v>
@@ -6045,7 +6050,7 @@
         <v>21.666399999999999</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E232">
         <v>1716</v>
@@ -6053,7 +6058,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="B233">
         <v>38.030799999999999</v>
@@ -6062,7 +6067,7 @@
         <v>22.108599999999999</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E233">
         <v>1674</v>
@@ -6070,7 +6075,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="B234">
         <v>38.906399999999998</v>
@@ -6079,7 +6084,7 @@
         <v>24.565799999999999</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E234">
         <v>1657</v>
@@ -6087,7 +6092,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="B235">
         <v>36.42</v>
@@ -6096,7 +6101,7 @@
         <v>25.431699999999999</v>
       </c>
       <c r="D235" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E235">
         <v>1616</v>
@@ -6104,7 +6109,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B236">
         <v>38.429299999999998</v>
@@ -6113,7 +6118,7 @@
         <v>22.667300000000001</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E236">
         <v>1589</v>
@@ -6121,7 +6126,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="B237">
         <v>39.1</v>
@@ -6130,7 +6135,7 @@
         <v>22.333300000000001</v>
       </c>
       <c r="D237" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="E237">
         <v>1531</v>
@@ -6138,7 +6143,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="B238">
         <v>41.061399999999999</v>
@@ -6147,7 +6152,7 @@
         <v>24.962399999999999</v>
       </c>
       <c r="D238" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="E238">
         <v>1473</v>
@@ -6155,7 +6160,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="B239">
         <v>35.2089</v>
@@ -6164,7 +6169,7 @@
         <v>25.337800000000001</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="E239">
         <v>1438</v>
@@ -6172,7 +6177,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="B240">
         <v>37.833300000000001</v>
@@ -6181,7 +6186,7 @@
         <v>24.933299999999999</v>
       </c>
       <c r="D240" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="E240">
         <v>1428</v>
@@ -6189,7 +6194,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B241">
         <v>38.116700000000002</v>
@@ -6198,7 +6203,7 @@
         <v>21.8</v>
       </c>
       <c r="D241" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="E241">
         <v>913</v>
@@ -6206,7 +6211,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="B242">
         <v>37.945399999999999</v>
@@ -6215,12 +6220,12 @@
         <v>23.714600000000001</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="B243">
         <v>40.654000000000003</v>
@@ -6229,12 +6234,12 @@
         <v>22.9175</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="B244">
         <v>37.950099999999999</v>
@@ -6243,12 +6248,12 @@
         <v>23.731200000000001</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B245">
         <v>37.934199999999997</v>
@@ -6257,12 +6262,12 @@
         <v>23.729099999999999</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B246">
         <v>37.981099999999998</v>
@@ -6271,12 +6276,12 @@
         <v>23.651399999999999</v>
       </c>
       <c r="D246" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="B247">
         <v>38.012999999999998</v>
@@ -6285,12 +6290,12 @@
         <v>23.753299999999999</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B248">
         <v>40.669199999999996</v>
@@ -6299,12 +6304,12 @@
         <v>22.931000000000001</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="B249">
         <v>40.578899999999997</v>
@@ -6313,12 +6318,12 @@
         <v>22.948499999999999</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B250">
         <v>37.930199999999999</v>
@@ -6327,12 +6332,12 @@
         <v>23.7026</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B251">
         <v>37.988300000000002</v>
@@ -6341,12 +6346,12 @@
         <v>23.660900000000002</v>
       </c>
       <c r="D251" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="B252">
         <v>37.9925</v>
@@ -6355,12 +6360,12 @@
         <v>23.678100000000001</v>
       </c>
       <c r="D252" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B253">
         <v>38.054000000000002</v>
@@ -6369,12 +6374,12 @@
         <v>23.7745</v>
       </c>
       <c r="D253" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B254">
         <v>38.032400000000003</v>
@@ -6383,12 +6388,12 @@
         <v>23.724699999999999</v>
       </c>
       <c r="D254" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B255">
         <v>38.032299999999999</v>
@@ -6397,12 +6402,12 @@
         <v>23.702200000000001</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B256">
         <v>37.964300000000001</v>
@@ -6411,12 +6416,12 @@
         <v>23.619900000000001</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B257">
         <v>37.9681</v>
@@ -6425,12 +6430,12 @@
         <v>23.759499999999999</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="B258">
         <v>37.954000000000001</v>
@@ -6439,12 +6444,12 @@
         <v>23.6815</v>
       </c>
       <c r="D258" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B259">
         <v>38.035400000000003</v>
@@ -6453,12 +6458,12 @@
         <v>23.831900000000001</v>
       </c>
       <c r="D259" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="B260">
         <v>37.975700000000003</v>
@@ -6467,12 +6472,12 @@
         <v>23.769100000000002</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B261">
         <v>38.0396</v>
@@ -6481,12 +6486,12 @@
         <v>23.6812</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="B262">
         <v>38.000999999999998</v>
@@ -6495,12 +6500,12 @@
         <v>23.800799999999999</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="B263">
         <v>40.647399999999998</v>
@@ -6509,12 +6514,12 @@
         <v>22.956299999999999</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="B264">
         <v>40.669800000000002</v>
@@ -6523,12 +6528,12 @@
         <v>22.908799999999999</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="B265">
         <v>37.959600000000002</v>
@@ -6537,12 +6542,12 @@
         <v>23.7529</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B266">
         <v>38.013599999999997</v>
@@ -6551,12 +6556,12 @@
         <v>23.825500000000002</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="B267">
         <v>37.914299999999997</v>
@@ -6565,12 +6570,12 @@
         <v>23.715900000000001</v>
       </c>
       <c r="D267" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B268">
         <v>37.930199999999999</v>
@@ -6579,12 +6584,12 @@
         <v>23.7514</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B269">
         <v>38.051200000000001</v>
@@ -6593,12 +6598,12 @@
         <v>23.836200000000002</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B270">
         <v>38.063899999999997</v>
@@ -6607,12 +6612,12 @@
         <v>23.761800000000001</v>
       </c>
       <c r="D270" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B271">
         <v>38.053699999999999</v>
@@ -6621,12 +6626,12 @@
         <v>23.807700000000001</v>
       </c>
       <c r="D271" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B272">
         <v>37.906199999999998</v>
@@ -6635,12 +6640,12 @@
         <v>23.750699999999998</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="B273">
         <v>38.013300000000001</v>
@@ -6649,12 +6654,12 @@
         <v>23.856000000000002</v>
       </c>
       <c r="D273" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="B274">
         <v>38.013100000000001</v>
@@ -6663,12 +6668,12 @@
         <v>23.772300000000001</v>
       </c>
       <c r="D274" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B275">
         <v>37.8459</v>
@@ -6677,12 +6682,12 @@
         <v>23.762599999999999</v>
       </c>
       <c r="D275" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B276">
         <v>40.499000000000002</v>
@@ -6691,12 +6696,12 @@
         <v>22.926200000000001</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="B277">
         <v>38.007899999999999</v>
@@ -6705,12 +6710,12 @@
         <v>23.659700000000001</v>
       </c>
       <c r="D277" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="B278">
         <v>37.780200000000001</v>
@@ -6719,12 +6724,12 @@
         <v>20.895600000000002</v>
       </c>
       <c r="D278" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="B279">
         <v>38.076700000000002</v>
@@ -6733,12 +6738,12 @@
         <v>23.820799999999998</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="B280">
         <v>37.966200000000001</v>
@@ -6747,12 +6752,12 @@
         <v>23.573899999999998</v>
       </c>
       <c r="D280" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="B281">
         <v>38.140799999999999</v>
@@ -6761,12 +6766,12 @@
         <v>23.859100000000002</v>
       </c>
       <c r="D281" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B282">
         <v>38.249299999999998</v>
@@ -6775,12 +6780,12 @@
         <v>22.084800000000001</v>
       </c>
       <c r="D282" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B283">
         <v>40.729599999999998</v>
@@ -6789,12 +6794,12 @@
         <v>22.916499999999999</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="B284">
         <v>38.830399999999997</v>
@@ -6803,12 +6808,12 @@
         <v>20.7044</v>
       </c>
       <c r="D284" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="B285">
         <v>38.084699999999998</v>
@@ -6817,12 +6822,12 @@
         <v>23.737200000000001</v>
       </c>
       <c r="D285" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="B286">
         <v>38.084000000000003</v>
@@ -6831,12 +6836,12 @@
         <v>23.702300000000001</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="B287">
         <v>40.585299999999997</v>
@@ -6845,12 +6850,12 @@
         <v>23.028099999999998</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="B288">
         <v>39.1601</v>
@@ -6859,12 +6864,12 @@
         <v>20.985600000000002</v>
       </c>
       <c r="D288" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="B289">
         <v>35.325200000000002</v>
@@ -6873,12 +6878,12 @@
         <v>25.066199999999998</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="B290">
         <v>38.023200000000003</v>
@@ -6887,12 +6892,12 @@
         <v>24.002600000000001</v>
       </c>
       <c r="D290" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="B291">
         <v>40.780700000000003</v>
@@ -6901,12 +6906,12 @@
         <v>21.409300000000002</v>
       </c>
       <c r="D291" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="B292">
         <v>37.1021</v>
@@ -6915,12 +6920,12 @@
         <v>25.378</v>
       </c>
       <c r="D292" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="B293">
         <v>40.512099999999997</v>
@@ -6929,12 +6934,12 @@
         <v>21.678000000000001</v>
       </c>
       <c r="D293" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="B294">
         <v>37.630600000000001</v>
@@ -6943,12 +6948,12 @@
         <v>22.721499999999999</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="B295">
         <v>38.081499999999998</v>
@@ -6957,12 +6962,12 @@
         <v>22.619299999999999</v>
       </c>
       <c r="D295" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B296">
         <v>35.051699999999997</v>
@@ -6971,12 +6976,12 @@
         <v>24.875</v>
       </c>
       <c r="D296" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="B297">
         <v>35.2181</v>
@@ -6985,12 +6990,12 @@
         <v>25.192900000000002</v>
       </c>
       <c r="D297" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="B298">
         <v>35.369500000000002</v>
@@ -6999,12 +7004,12 @@
         <v>24.703900000000001</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B299">
         <v>39.503399999999999</v>
@@ -7013,12 +7018,12 @@
         <v>20.267299999999999</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B300">
         <v>37.8506</v>
@@ -7027,12 +7032,12 @@
         <v>21.253399999999999</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B301">
         <v>35.324800000000003</v>
@@ -7041,12 +7046,12 @@
         <v>25.2776</v>
       </c>
       <c r="D301" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B302">
         <v>39.7059</v>
@@ -7055,12 +7060,12 @@
         <v>20.7928</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B303">
         <v>38.061700000000002</v>
@@ -7069,12 +7074,12 @@
         <v>23.589400000000001</v>
       </c>
       <c r="D303" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="B304">
         <v>37.797199999999997</v>
@@ -7083,12 +7088,12 @@
         <v>21.349499999999999</v>
       </c>
       <c r="D304" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B305">
         <v>37.9009</v>
@@ -7097,12 +7102,12 @@
         <v>23.872299999999999</v>
       </c>
       <c r="D305" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="B306">
         <v>41.182299999999998</v>
@@ -7111,12 +7116,12 @@
         <v>23.2822</v>
       </c>
       <c r="D306" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="B307">
         <v>39.2331</v>
@@ -7125,12 +7130,12 @@
         <v>20.603100000000001</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B308">
         <v>37.883299999999998</v>
@@ -7139,12 +7144,12 @@
         <v>23.933299999999999</v>
       </c>
       <c r="D308" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="B309">
         <v>37.646900000000002</v>
@@ -7153,12 +7158,12 @@
         <v>21.625599999999999</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="B310">
         <v>35.005600000000001</v>
@@ -7167,12 +7172,12 @@
         <v>25.7333</v>
       </c>
       <c r="D310" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="B311">
         <v>40.084000000000003</v>
@@ -7181,12 +7186,12 @@
         <v>21.429099999999998</v>
       </c>
       <c r="D311" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="B312">
         <v>37.839100000000002</v>
@@ -7195,12 +7200,12 @@
         <v>23.927600000000002</v>
       </c>
       <c r="D312" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="B313">
         <v>35.516800000000003</v>
@@ -7209,12 +7214,12 @@
         <v>23.878</v>
       </c>
       <c r="D313" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="B314">
         <v>39.428800000000003</v>
@@ -7223,7 +7228,7 @@
         <v>21.6629</v>
       </c>
       <c r="D314" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,12 +7242,12 @@
         <v>23.3172</v>
       </c>
       <c r="D315" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="B316">
         <v>38.016500000000001</v>
@@ -7251,12 +7256,12 @@
         <v>24.420400000000001</v>
       </c>
       <c r="D316" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="B317">
         <v>38.914400000000001</v>
@@ -7265,12 +7270,12 @@
         <v>22.613800000000001</v>
       </c>
       <c r="D317" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="B318">
         <v>37.223700000000001</v>
@@ -7279,12 +7284,12 @@
         <v>21.969899999999999</v>
       </c>
       <c r="D318" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B319">
         <v>38.301699999999997</v>
@@ -7293,12 +7298,12 @@
         <v>23.754200000000001</v>
       </c>
       <c r="D319" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="B320">
         <v>39.718800000000002</v>
@@ -7307,12 +7312,12 @@
         <v>22.755500000000001</v>
       </c>
       <c r="D320" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B321">
         <v>38.371400000000001</v>
@@ -7321,12 +7326,12 @@
         <v>21.4315</v>
       </c>
       <c r="D321" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c r="B322">
         <v>39.464399999999998</v>
@@ -7335,12 +7340,12 @@
         <v>22.0825</v>
       </c>
       <c r="D322" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="B323">
         <v>37.975000000000001</v>
@@ -7349,12 +7354,12 @@
         <v>22.979800000000001</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="B324">
         <v>38.397100000000002</v>
@@ -7363,12 +7368,12 @@
         <v>23.790199999999999</v>
       </c>
       <c r="D324" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="B325">
         <v>39.167700000000004</v>
@@ -7377,12 +7382,12 @@
         <v>21.0351</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>336</v>
+        <v>116</v>
       </c>
       <c r="B326">
         <v>39.334400000000002</v>
@@ -7391,12 +7396,12 @@
         <v>22.097300000000001</v>
       </c>
       <c r="D326" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B327">
         <v>40.914900000000003</v>
@@ -7405,12 +7410,12 @@
         <v>24.254200000000001</v>
       </c>
       <c r="D327" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B328">
         <v>41.121600000000001</v>
@@ -7419,12 +7424,12 @@
         <v>25.632400000000001</v>
       </c>
       <c r="D328" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>339</v>
+        <v>117</v>
       </c>
       <c r="B329">
         <v>40.630000000000003</v>
@@ -7433,12 +7438,12 @@
         <v>22.0684</v>
       </c>
       <c r="D329" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="B330">
         <v>40.981200000000001</v>
@@ -7447,12 +7452,12 @@
         <v>24.8001</v>
       </c>
       <c r="D330" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="B331">
         <v>39.459600000000002</v>
@@ -7461,12 +7466,12 @@
         <v>21.6221</v>
       </c>
       <c r="D331" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>342</v>
+        <v>118</v>
       </c>
       <c r="B332">
         <v>39.196100000000001</v>
@@ -7475,12 +7480,12 @@
         <v>20.1858</v>
       </c>
       <c r="D332" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B333">
         <v>37.5167</v>
@@ -7489,12 +7494,12 @@
         <v>23.466699999999999</v>
       </c>
       <c r="D333" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B334">
         <v>41.058399999999999</v>
@@ -7503,12 +7508,12 @@
         <v>23.651399999999999</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>345</v>
+        <v>183</v>
       </c>
       <c r="B335">
         <v>40.184399999999997</v>
@@ -7517,12 +7522,12 @@
         <v>22.000499999999999</v>
       </c>
       <c r="D335" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="B336">
         <v>37.709600000000002</v>
@@ -7531,12 +7536,12 @@
         <v>23.347200000000001</v>
       </c>
       <c r="D336" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B337">
         <v>39.591299999999997</v>
@@ -7545,12 +7550,12 @@
         <v>22.0686</v>
       </c>
       <c r="D337" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c r="B338">
         <v>37.308599999999998</v>
@@ -7559,12 +7564,12 @@
         <v>26.5474</v>
       </c>
       <c r="D338" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="B339">
         <v>39.564900000000002</v>
@@ -7573,12 +7578,12 @@
         <v>22.466000000000001</v>
       </c>
       <c r="D339" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>349</v>
+        <v>120</v>
       </c>
       <c r="B340">
         <v>38.0747</v>
@@ -7587,12 +7592,12 @@
         <v>23.4969</v>
       </c>
       <c r="D340" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B341">
         <v>41.228900000000003</v>
@@ -7601,12 +7606,12 @@
         <v>24.880400000000002</v>
       </c>
       <c r="D341" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>351</v>
+        <v>121</v>
       </c>
       <c r="B342">
         <v>39.444400000000002</v>
@@ -7615,12 +7620,12 @@
         <v>23.101199999999999</v>
       </c>
       <c r="D342" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="B343">
         <v>36.887700000000002</v>
@@ -7629,12 +7634,12 @@
         <v>22.232700000000001</v>
       </c>
       <c r="D343" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>353</v>
+        <v>122</v>
       </c>
       <c r="B344">
         <v>38.654000000000003</v>
@@ -7643,12 +7648,12 @@
         <v>22.997</v>
       </c>
       <c r="D344" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>354</v>
+        <v>184</v>
       </c>
       <c r="B345">
         <v>35.058199999999999</v>
@@ -7657,12 +7662,12 @@
         <v>24.9602</v>
       </c>
       <c r="D345" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="B346">
         <v>41.031199999999998</v>
@@ -7671,12 +7676,12 @@
         <v>23.828900000000001</v>
       </c>
       <c r="D346" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B347">
         <v>36.509</v>
@@ -7685,12 +7690,12 @@
         <v>22.9787</v>
       </c>
       <c r="D347" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="B348">
         <v>35.199100000000001</v>
@@ -7699,12 +7704,12 @@
         <v>25.488900000000001</v>
       </c>
       <c r="D348" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="B349">
         <v>39.887099999999997</v>
@@ -7713,12 +7718,12 @@
         <v>20.6249</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B350">
         <v>41.2361</v>
@@ -7727,12 +7732,12 @@
         <v>23.392499999999998</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>360</v>
+        <v>125</v>
       </c>
       <c r="B351">
         <v>38.3626</v>
@@ -7741,12 +7746,12 @@
         <v>20.721800000000002</v>
       </c>
       <c r="D351" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="B352">
         <v>38.765900000000002</v>
@@ -7755,12 +7760,12 @@
         <v>23.319500000000001</v>
       </c>
       <c r="D352" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="B353">
         <v>37.295900000000003</v>
@@ -7769,12 +7774,12 @@
         <v>26.769500000000001</v>
       </c>
       <c r="D353" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="B354">
         <v>36.148299999999999</v>
@@ -7783,12 +7788,12 @@
         <v>29.591699999999999</v>
       </c>
       <c r="D354" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="B355">
         <v>38.515799999999999</v>
@@ -7797,12 +7802,12 @@
         <v>26.2225</v>
       </c>
       <c r="D355" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B356">
         <v>39.121699999999997</v>
@@ -7811,12 +7816,12 @@
         <v>23.727599999999999</v>
       </c>
       <c r="D356" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="B357">
         <v>35.216799999999999</v>
@@ -7825,12 +7830,12 @@
         <v>24.536100000000001</v>
       </c>
       <c r="D357" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B358">
         <v>37.4512</v>
@@ -7839,12 +7844,12 @@
         <v>24.935600000000001</v>
       </c>
       <c r="D358" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>368</v>
+        <v>126</v>
       </c>
       <c r="B359">
         <v>39.521999999999998</v>
@@ -7853,12 +7858,12 @@
         <v>21.098600000000001</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="B360">
         <v>36.6145</v>
@@ -7867,12 +7872,12 @@
         <v>27.836200000000002</v>
       </c>
       <c r="D360" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="B361">
         <v>40.921100000000003</v>
@@ -7881,12 +7886,12 @@
         <v>23.974599999999999</v>
       </c>
       <c r="D361" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>371</v>
+        <v>127</v>
       </c>
       <c r="B362">
         <v>35.053899999999999</v>
@@ -7895,12 +7900,12 @@
         <v>25.41</v>
       </c>
       <c r="D362" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B363">
         <v>35.231299999999997</v>
@@ -7909,12 +7914,12 @@
         <v>23.6813</v>
       </c>
       <c r="D363" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="B364">
         <v>36.974400000000003</v>
@@ -7923,12 +7928,12 @@
         <v>24.724</v>
       </c>
       <c r="D364" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="B365">
         <v>39.522599999999997</v>
@@ -7937,12 +7942,12 @@
         <v>20.883600000000001</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="B366">
         <v>37.576799999999999</v>
@@ -7951,12 +7956,12 @@
         <v>26.4815</v>
       </c>
       <c r="D366" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="B367">
         <v>39.226100000000002</v>
@@ -7965,12 +7970,12 @@
         <v>23.217300000000002</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B368">
         <v>37.346899999999998</v>
@@ -7979,12 +7984,12 @@
         <v>23.465699999999998</v>
       </c>
       <c r="D368" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="B369">
         <v>37.597499999999997</v>
@@ -7993,12 +7998,12 @@
         <v>23.0747</v>
       </c>
       <c r="D369" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
       <c r="B370">
         <v>39.9253</v>
@@ -8007,12 +8012,12 @@
         <v>21.810199999999998</v>
       </c>
       <c r="D370" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B371">
         <v>39.804200000000002</v>
@@ -8021,12 +8026,12 @@
         <v>22.4923</v>
       </c>
       <c r="D371" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="B372">
         <v>35.254199999999997</v>
@@ -8035,12 +8040,12 @@
         <v>24.6342</v>
       </c>
       <c r="D372" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="B373">
         <v>36.628</v>
@@ -8049,12 +8054,12 @@
         <v>24.919899999999998</v>
       </c>
       <c r="D373" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B374">
         <v>35.454500000000003</v>
@@ -8063,12 +8068,12 @@
         <v>23.6004</v>
       </c>
       <c r="D374" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>384</v>
+        <v>129</v>
       </c>
       <c r="B375">
         <v>36.610399999999998</v>
@@ -8077,12 +8082,12 @@
         <v>27.132200000000001</v>
       </c>
       <c r="D375" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
       <c r="B376">
         <v>37.040399999999998</v>
@@ -8091,12 +8096,12 @@
         <v>25.081900000000001</v>
       </c>
       <c r="D376" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B377">
         <v>35.290700000000001</v>
@@ -8105,12 +8110,12 @@
         <v>24.883400000000002</v>
       </c>
       <c r="D377" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="B378">
         <v>39.352499999999999</v>
@@ -8119,12 +8124,12 @@
         <v>21.750399999999999</v>
       </c>
       <c r="D378" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B379">
         <v>36.1492</v>
@@ -8133,12 +8138,12 @@
         <v>22.988</v>
       </c>
       <c r="D379" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="B380">
         <v>38.5274</v>
@@ -8147,12 +8152,12 @@
         <v>22.205100000000002</v>
       </c>
       <c r="D380" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B381">
         <v>39.1494</v>
@@ -8161,12 +8166,12 @@
         <v>23.845400000000001</v>
       </c>
       <c r="D381" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="B382">
         <v>37.155000000000001</v>
@@ -8175,12 +8180,12 @@
         <v>24.506399999999999</v>
       </c>
       <c r="D382" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="B383">
         <v>36.723300000000002</v>
@@ -8189,12 +8194,12 @@
         <v>25.282499999999999</v>
       </c>
       <c r="D383" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>393</v>
+        <v>187</v>
       </c>
       <c r="B384">
         <v>39.371699999999997</v>
@@ -8203,12 +8208,12 @@
         <v>21.183299999999999</v>
       </c>
       <c r="D384" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="B385">
         <v>36.793700000000001</v>
@@ -8217,12 +8222,12 @@
         <v>24.573899999999998</v>
       </c>
       <c r="D385" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="B386">
         <v>40.474299999999999</v>
@@ -8231,12 +8236,12 @@
         <v>25.525099999999998</v>
       </c>
       <c r="D386" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B387">
         <v>35.416200000000003</v>
@@ -8245,12 +8250,12 @@
         <v>26.923100000000002</v>
       </c>
       <c r="D387" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B388">
         <v>37.412300000000002</v>
@@ -8259,12 +8264,12 @@
         <v>24.431000000000001</v>
       </c>
       <c r="D388" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="B389">
         <v>39.0045</v>
@@ -8273,12 +8278,12 @@
         <v>21.638999999999999</v>
       </c>
       <c r="D389" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="B390">
         <v>37.639699999999998</v>
@@ -8287,12 +8292,12 @@
         <v>24.342300000000002</v>
       </c>
       <c r="D390" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="B391">
         <v>36.2226</v>
@@ -8301,12 +8306,12 @@
         <v>27.6113</v>
       </c>
       <c r="D391" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B392">
         <v>37.457799999999999</v>
@@ -8315,12 +8320,12 @@
         <v>26.9724</v>
       </c>
       <c r="D392" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="B393">
         <v>36.547899999999998</v>
@@ -8329,12 +8334,12 @@
         <v>26.352</v>
       </c>
       <c r="D393" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>403</v>
+        <v>133</v>
       </c>
       <c r="B394">
         <v>39.822600000000001</v>
@@ -8343,12 +8348,12 @@
         <v>20.727599999999999</v>
       </c>
       <c r="D394" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="B395">
         <v>37.595700000000001</v>
@@ -8357,12 +8362,12 @@
         <v>22.0395</v>
       </c>
       <c r="D395" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B396">
         <v>39.347299999999997</v>
@@ -8371,12 +8376,12 @@
         <v>21.458600000000001</v>
       </c>
       <c r="D396" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="B397">
         <v>36.831800000000001</v>
@@ -8385,12 +8390,12 @@
         <v>25.898299999999999</v>
       </c>
       <c r="D397" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>407</v>
+        <v>282</v>
       </c>
       <c r="B398">
         <v>39.2515</v>
@@ -8399,12 +8404,12 @@
         <v>21.167899999999999</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="B399">
         <v>38.541400000000003</v>
@@ -8413,12 +8418,12 @@
         <v>25.562999999999999</v>
       </c>
       <c r="D399" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="B400">
         <v>36.743600000000001</v>
@@ -8427,12 +8432,12 @@
         <v>24.422499999999999</v>
       </c>
       <c r="D400" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B401">
         <v>40.835900000000002</v>
@@ -8441,12 +8446,12 @@
         <v>21.1404</v>
       </c>
       <c r="D401" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B402">
         <v>36.455100000000002</v>
@@ -8455,12 +8460,12 @@
         <v>27.346900000000002</v>
       </c>
       <c r="D402" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>411</v>
+        <v>136</v>
       </c>
       <c r="B403">
         <v>36.350900000000003</v>
@@ -8469,12 +8474,12 @@
         <v>25.767099999999999</v>
       </c>
       <c r="D403" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="B404">
         <v>39.539099999999998</v>
@@ -8483,12 +8488,12 @@
         <v>24.990400000000001</v>
       </c>
       <c r="D404" t="s">
-        <v>54</v>
+        <v>413</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="B405">
         <v>36.6965</v>
@@ -8497,12 +8502,12 @@
         <v>25.119900000000001</v>
       </c>
       <c r="D405" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="B406">
         <v>35.201799999999999</v>
@@ -8511,12 +8516,12 @@
         <v>24.139800000000001</v>
       </c>
       <c r="D406" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="B407">
         <v>40.413400000000003</v>
@@ -8525,12 +8530,12 @@
         <v>21.061199999999999</v>
       </c>
       <c r="D407" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="B408">
         <v>41.266800000000003</v>
@@ -8539,12 +8544,12 @@
         <v>24.501999999999999</v>
       </c>
       <c r="D408" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>417</v>
+        <v>285</v>
       </c>
       <c r="B409">
         <v>34.834499999999998</v>
@@ -8553,10 +8558,11 @@
         <v>24.086400000000001</v>
       </c>
       <c r="D409" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E409"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/greece.xlsx
+++ b/greece.xlsx
@@ -46,9 +46,6 @@
     <t>Thebes</t>
   </si>
   <si>
-    <t>Ptolemaḯda</t>
-  </si>
-  <si>
     <t>Patra</t>
   </si>
   <si>
@@ -1271,6 +1268,9 @@
   </si>
   <si>
     <t>Anatoliki Makedonia kai Thraki</t>
+  </si>
+  <si>
+    <t>Ptolemaida</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2140,7 @@
         <v>23.716100000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2">
         <v>664046</v>
@@ -2157,7 +2157,7 @@
         <v>23.7</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3">
         <v>466065</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4">
         <v>40.633299999999998</v>
@@ -2174,7 +2174,7 @@
         <v>22.95</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4">
         <v>315196</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>38.25</v>
@@ -2191,7 +2191,7 @@
         <v>21.7333</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5">
         <v>167446</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>39.638500000000001</v>
@@ -2208,7 +2208,7 @@
         <v>22.4131</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E6">
         <v>144651</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>35.333300000000001</v>
@@ -2225,7 +2225,7 @@
         <v>25.133299999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7">
         <v>140730</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>38.0167</v>
@@ -2242,7 +2242,7 @@
         <v>23.683299999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8">
         <v>139981</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>37.950000000000003</v>
@@ -2259,7 +2259,7 @@
         <v>23.7</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9">
         <v>100641</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <v>37.966700000000003</v>
@@ -2276,7 +2276,7 @@
         <v>23.633299999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10">
         <v>89380</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>37.880000000000003</v>
@@ -2293,7 +2293,7 @@
         <v>23.753299999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11">
         <v>87305</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12">
         <v>39.3611</v>
@@ -2310,7 +2310,7 @@
         <v>22.942499999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12">
         <v>86046</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>38.0167</v>
@@ -2327,7 +2327,7 @@
         <v>23.8</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E13">
         <v>74192</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>37.038899999999998</v>
@@ -2344,7 +2344,7 @@
         <v>22.1142</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14">
         <v>71823</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>38.033299999999997</v>
@@ -2361,7 +2361,7 @@
         <v>23.75</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E15">
         <v>67134</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>39.664700000000003</v>
@@ -2378,7 +2378,7 @@
         <v>20.851900000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E16">
         <v>65574</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17">
         <v>39.549999999999997</v>
@@ -2395,7 +2395,7 @@
         <v>21.7667</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E17">
         <v>61653</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18">
         <v>38.462499999999999</v>
@@ -2412,7 +2412,7 @@
         <v>23.594999999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18">
         <v>59125</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>41.083300000000001</v>
@@ -2429,7 +2429,7 @@
         <v>23.55</v>
       </c>
       <c r="D19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E19">
         <v>58287</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20">
         <v>40.85</v>
@@ -2446,7 +2446,7 @@
         <v>25.866700000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E20">
         <v>57812</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21">
         <v>36.441200000000002</v>
@@ -2463,7 +2463,7 @@
         <v>28.2225</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E21">
         <v>56969</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>41.133299999999998</v>
@@ -2480,7 +2480,7 @@
         <v>24.883299999999998</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E22">
         <v>56122</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>40.2667</v>
@@ -2497,7 +2497,7 @@
         <v>22.5</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E23">
         <v>55997</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>40.939599999999999</v>
@@ -2514,7 +2514,7 @@
         <v>24.4069</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24">
         <v>54027</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>35.5167</v>
@@ -2531,7 +2531,7 @@
         <v>24.0167</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E25">
         <v>53910</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26">
         <v>38.897199999999998</v>
@@ -2548,7 +2548,7 @@
         <v>22.431100000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E26">
         <v>52006</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27">
         <v>41.116700000000002</v>
@@ -2565,7 +2565,7 @@
         <v>25.4</v>
       </c>
       <c r="D27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E27">
         <v>50990</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28">
         <v>38.616700000000002</v>
@@ -2582,7 +2582,7 @@
         <v>21.4</v>
       </c>
       <c r="D28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E28">
         <v>46899</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>41.151400000000002</v>
@@ -2599,7 +2599,7 @@
         <v>24.139199999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E29">
         <v>44823</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30">
         <v>40.520299999999999</v>
@@ -2616,7 +2616,7 @@
         <v>22.201899999999998</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E30">
         <v>43158</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>40.300699999999999</v>
@@ -2633,7 +2633,7 @@
         <v>21.789000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E31">
         <v>41066</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32">
         <v>39.364699999999999</v>
@@ -2650,7 +2650,7 @@
         <v>21.921900000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E32">
         <v>38554</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33">
         <v>35.366700000000002</v>
@@ -2667,7 +2667,7 @@
         <v>24.466699999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33">
         <v>32468</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34">
         <v>37.508299999999998</v>
@@ -2684,7 +2684,7 @@
         <v>22.375</v>
       </c>
       <c r="D34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E34">
         <v>30866</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35">
         <v>37.933300000000003</v>
@@ -2701,7 +2701,7 @@
         <v>22.933299999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E35">
         <v>30176</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>40.796199999999999</v>
@@ -2718,7 +2718,7 @@
         <v>22.4145</v>
       </c>
       <c r="D36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E36">
         <v>29789</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37">
         <v>39.111400000000003</v>
@@ -2735,7 +2735,7 @@
         <v>26.562100000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E37">
         <v>29328</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38">
         <v>38.372500000000002</v>
@@ -2752,7 +2752,7 @@
         <v>26.137499999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E38">
         <v>26850</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>38.034999999999997</v>
@@ -2769,7 +2769,7 @@
         <v>23.738099999999999</v>
       </c>
       <c r="D39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E39">
         <v>25734</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40">
         <v>37.933300000000003</v>
@@ -2786,7 +2786,7 @@
         <v>23.5</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E40">
         <v>25370</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41">
         <v>38.041400000000003</v>
@@ -2803,7 +2803,7 @@
         <v>23.545300000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E41">
         <v>24910</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>39.623899999999999</v>
@@ -2820,7 +2820,7 @@
         <v>19.921399999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E42">
         <v>24838</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43">
         <v>37.666699999999999</v>
@@ -2837,7 +2837,7 @@
         <v>21.433299999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E43">
         <v>24359</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44">
         <v>38</v>
@@ -2854,7 +2854,7 @@
         <v>23.333300000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E44">
         <v>23456</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45">
         <v>40.995399999999997</v>
@@ -2871,7 +2871,7 @@
         <v>22.8765</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E45">
         <v>22914</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>38.066699999999997</v>
@@ -2888,7 +2888,7 @@
         <v>23.8</v>
       </c>
       <c r="D46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E46">
         <v>21415</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>38.433300000000003</v>
@@ -2905,7 +2905,7 @@
         <v>22.866700000000002</v>
       </c>
       <c r="D47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E47">
         <v>21379</v>
@@ -2922,7 +2922,7 @@
         <v>27.1572</v>
       </c>
       <c r="D48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E48">
         <v>19244</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49">
         <v>38.950000000000003</v>
@@ -2939,7 +2939,7 @@
         <v>20.75</v>
       </c>
       <c r="D49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E49">
         <v>19042</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>41.5</v>
@@ -2956,7 +2956,7 @@
         <v>26.533300000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E50">
         <v>18426</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51">
         <v>40.799999999999997</v>
@@ -2973,7 +2973,7 @@
         <v>22.05</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E51">
         <v>18229</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>37.081899999999997</v>
@@ -2990,7 +2990,7 @@
         <v>22.4236</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E52">
         <v>16187</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53">
         <v>40.547199999999997</v>
@@ -3007,7 +3007,7 @@
         <v>23.0197</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E53">
         <v>16004</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>40.628300000000003</v>
@@ -3024,7 +3024,7 @@
         <v>22.445399999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E54">
         <v>14821</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55">
         <v>37.950000000000003</v>
@@ -3041,7 +3041,7 @@
         <v>23.85</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E55">
         <v>14595</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>37.566699999999997</v>
@@ -3058,7 +3058,7 @@
         <v>22.8</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E56">
         <v>14203</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>38.3917</v>
@@ -3075,7 +3075,7 @@
         <v>21.827500000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E57">
         <v>13415</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>40.518099999999997</v>
@@ -3092,7 +3092,7 @@
         <v>21.268799999999999</v>
       </c>
       <c r="D58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E58">
         <v>13387</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>36.9512</v>
@@ -3109,7 +3109,7 @@
         <v>26.9832</v>
       </c>
       <c r="D59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E59">
         <v>12324</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60">
         <v>37.450400000000002</v>
@@ -3126,7 +3126,7 @@
         <v>24.933299999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E60">
         <v>12260</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B61">
         <v>35.1892</v>
@@ -3143,7 +3143,7 @@
         <v>25.717300000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E61">
         <v>11421</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62">
         <v>39.735300000000002</v>
@@ -3160,7 +3160,7 @@
         <v>22.286899999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E62">
         <v>11069</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>40.688299999999998</v>
@@ -3177,7 +3177,7 @@
         <v>22.8583</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E63">
         <v>9890</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64">
         <v>38.011699999999998</v>
@@ -3194,7 +3194,7 @@
         <v>22.746700000000001</v>
       </c>
       <c r="D64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E64">
         <v>9812</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65">
         <v>39.638599999999997</v>
@@ -3211,7 +3211,7 @@
         <v>20.866099999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E65">
         <v>9798</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B66">
         <v>38.173900000000003</v>
@@ -3228,7 +3228,7 @@
         <v>20.488299999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E66">
         <v>9748</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B67">
         <v>38.066699999999997</v>
@@ -3245,7 +3245,7 @@
         <v>23.783300000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E67">
         <v>9738</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B68">
         <v>37.884399999999999</v>
@@ -3262,7 +3262,7 @@
         <v>24.012499999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E68">
         <v>9686</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69">
         <v>38.5167</v>
@@ -3279,7 +3279,7 @@
         <v>23.633299999999998</v>
       </c>
       <c r="D69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E69">
         <v>9489</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B70">
         <v>38.066699999999997</v>
@@ -3296,7 +3296,7 @@
         <v>23.716699999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E70">
         <v>9454</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71">
         <v>35.200000000000003</v>
@@ -3313,7 +3313,7 @@
         <v>26.1</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E71">
         <v>9348</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72">
         <v>40.238599999999998</v>
@@ -3330,7 +3330,7 @@
         <v>23.281400000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E72">
         <v>9342</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>39.283299999999997</v>
@@ -3347,7 +3347,7 @@
         <v>22.383299999999998</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E73">
         <v>9298</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74">
         <v>40.666699999999999</v>
@@ -3364,7 +3364,7 @@
         <v>22.8</v>
       </c>
       <c r="D74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E74">
         <v>9289</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B75">
         <v>41.35</v>
@@ -3381,7 +3381,7 @@
         <v>26.5</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E75">
         <v>9263</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>37.966700000000003</v>
@@ -3398,7 +3398,7 @@
         <v>23.916699999999999</v>
       </c>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E76">
         <v>9198</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B77">
         <v>40.426099999999998</v>
@@ -3415,7 +3415,7 @@
         <v>22.928100000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E77">
         <v>8979</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78">
         <v>40.9833</v>
@@ -3432,7 +3432,7 @@
         <v>24.7</v>
       </c>
       <c r="D78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E78">
         <v>8885</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79">
         <v>38</v>
@@ -3449,7 +3449,7 @@
         <v>23.416699999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E79">
         <v>8333</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80">
         <v>39.7044</v>
@@ -3466,7 +3466,7 @@
         <v>21.626899999999999</v>
       </c>
       <c r="D80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E80">
         <v>8330</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B81">
         <v>39.18</v>
@@ -3483,7 +3483,7 @@
         <v>22.76</v>
       </c>
       <c r="D81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E81">
         <v>7955</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82">
         <v>40.779200000000003</v>
@@ -3500,7 +3500,7 @@
         <v>22.576699999999999</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E82">
         <v>7850</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83">
         <v>39.667200000000001</v>
@@ -3517,7 +3517,7 @@
         <v>22.395800000000001</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E83">
         <v>7847</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>40.75</v>
@@ -3534,7 +3534,7 @@
         <v>23.066700000000001</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E84">
         <v>7764</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85">
         <v>35.484999999999999</v>
@@ -3551,7 +3551,7 @@
         <v>24.013000000000002</v>
       </c>
       <c r="D85" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E85">
         <v>7553</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B86">
         <v>40.452500000000001</v>
@@ -3568,7 +3568,7 @@
         <v>21.258099999999999</v>
       </c>
       <c r="D86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E86">
         <v>7473</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87">
         <v>39.8947</v>
@@ -3585,7 +3585,7 @@
         <v>22.188600000000001</v>
       </c>
       <c r="D87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E87">
         <v>7338</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88">
         <v>40.6267</v>
@@ -3602,7 +3602,7 @@
         <v>22.732199999999999</v>
       </c>
       <c r="D88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E88">
         <v>7270</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89">
         <v>40.313899999999997</v>
@@ -3619,7 +3619,7 @@
         <v>23.063300000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E89">
         <v>7238</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90">
         <v>38.920299999999997</v>
@@ -3636,7 +3636,7 @@
         <v>21.783300000000001</v>
       </c>
       <c r="D90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E90">
         <v>7183</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B91">
         <v>38.155000000000001</v>
@@ -3653,7 +3653,7 @@
         <v>23.9636</v>
       </c>
       <c r="D91" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E91">
         <v>7170</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92">
         <v>37.700000000000003</v>
@@ -3670,7 +3670,7 @@
         <v>24.05</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E92">
         <v>7078</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B93">
         <v>40.995399999999997</v>
@@ -3687,7 +3687,7 @@
         <v>22.571400000000001</v>
       </c>
       <c r="D93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E93">
         <v>7064</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B94">
         <v>40.102800000000002</v>
@@ -3704,7 +3704,7 @@
         <v>22.506900000000002</v>
       </c>
       <c r="D94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E94">
         <v>6995</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95">
         <v>38.525300000000001</v>
@@ -3721,7 +3721,7 @@
         <v>22.375299999999999</v>
       </c>
       <c r="D95" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E95">
         <v>6919</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96">
         <v>37.746699999999997</v>
@@ -3738,7 +3738,7 @@
         <v>23.427499999999998</v>
       </c>
       <c r="D96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E96">
         <v>6867</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97">
         <v>37.791699999999999</v>
@@ -3755,7 +3755,7 @@
         <v>26.705100000000002</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E97">
         <v>6708</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B98">
         <v>38.15</v>
@@ -3772,7 +3772,7 @@
         <v>21.55</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E98">
         <v>6618</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B99">
         <v>40.975000000000001</v>
@@ -3789,7 +3789,7 @@
         <v>22.058299999999999</v>
       </c>
       <c r="D99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E99">
         <v>6561</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B100">
         <v>38.133299999999998</v>
@@ -3806,7 +3806,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E100">
         <v>6510</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B101">
         <v>35.4833</v>
@@ -3823,7 +3823,7 @@
         <v>24.066700000000001</v>
       </c>
       <c r="D101" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E101">
         <v>6358</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B102">
         <v>35.536000000000001</v>
@@ -3840,7 +3840,7 @@
         <v>24.076000000000001</v>
       </c>
       <c r="D102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E102">
         <v>6334</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B103">
         <v>37.7333</v>
@@ -3857,7 +3857,7 @@
         <v>23.95</v>
       </c>
       <c r="D103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E103">
         <v>6202</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B104">
         <v>40.378300000000003</v>
@@ -3874,7 +3874,7 @@
         <v>23.4453</v>
       </c>
       <c r="D104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E104">
         <v>6121</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105">
         <v>37.049999999999997</v>
@@ -3891,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E105">
         <v>6065</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B106">
         <v>40.500999999999998</v>
@@ -3908,7 +3908,7 @@
         <v>22.908999999999999</v>
       </c>
       <c r="D106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E106">
         <v>5984</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>37.157200000000003</v>
@@ -3925,7 +3925,7 @@
         <v>21.585799999999999</v>
       </c>
       <c r="D107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E107">
         <v>5969</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B108">
         <v>38.582799999999999</v>
@@ -3942,7 +3942,7 @@
         <v>23.6328</v>
       </c>
       <c r="D108" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E108">
         <v>5827</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B109">
         <v>37.4</v>
@@ -3959,7 +3959,7 @@
         <v>22.133299999999998</v>
       </c>
       <c r="D109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E109">
         <v>5748</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110">
         <v>39.8797</v>
@@ -3976,7 +3976,7 @@
         <v>25.074200000000001</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E110">
         <v>5711</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B111">
         <v>38.1</v>
@@ -3993,7 +3993,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E111">
         <v>5651</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B112">
         <v>35.4758</v>
@@ -4010,7 +4010,7 @@
         <v>24.0383</v>
       </c>
       <c r="D112" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E112">
         <v>5531</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B113">
         <v>38.066699999999997</v>
@@ -4027,7 +4027,7 @@
         <v>22.633299999999998</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E113">
         <v>5500</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114">
         <v>40.691099999999999</v>
@@ -4044,7 +4044,7 @@
         <v>23.004200000000001</v>
       </c>
       <c r="D114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E114">
         <v>5495</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B115">
         <v>40.256399999999999</v>
@@ -4061,7 +4061,7 @@
         <v>21.552199999999999</v>
       </c>
       <c r="D115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E115">
         <v>5490</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>40.893300000000004</v>
@@ -4078,7 +4078,7 @@
         <v>26.1739</v>
       </c>
       <c r="D116" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E116">
         <v>5457</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B117">
         <v>40.7667</v>
@@ -4095,7 +4095,7 @@
         <v>22.15</v>
       </c>
       <c r="D117" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E117">
         <v>5406</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118">
         <v>36.216700000000003</v>
@@ -4112,7 +4112,7 @@
         <v>28.116700000000002</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E118">
         <v>5384</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119">
         <v>36.410499999999999</v>
@@ -4129,7 +4129,7 @@
         <v>28.1191</v>
       </c>
       <c r="D119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E119">
         <v>5363</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B120">
         <v>38.416699999999999</v>
@@ -4146,7 +4146,7 @@
         <v>26.133299999999998</v>
       </c>
       <c r="D120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E120">
         <v>5323</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B121">
         <v>35.071899999999999</v>
@@ -4163,7 +4163,7 @@
         <v>24.7683</v>
       </c>
       <c r="D121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E121">
         <v>5285</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B122">
         <v>38.493299999999998</v>
@@ -4180,7 +4180,7 @@
         <v>22.974900000000002</v>
       </c>
       <c r="D122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E122">
         <v>5238</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B123">
         <v>39.340000000000003</v>
@@ -4197,7 +4197,7 @@
         <v>23.013300000000001</v>
       </c>
       <c r="D123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E123">
         <v>5191</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124">
         <v>39.2667</v>
@@ -4214,7 +4214,7 @@
         <v>22.816700000000001</v>
       </c>
       <c r="D124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E124">
         <v>5132</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125">
         <v>37.2333</v>
@@ -4231,7 +4231,7 @@
         <v>21.666699999999999</v>
       </c>
       <c r="D125" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E125">
         <v>5131</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126">
         <v>37.066699999999997</v>
@@ -4248,7 +4248,7 @@
         <v>21.633299999999998</v>
       </c>
       <c r="D126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E126">
         <v>5007</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B127">
         <v>40.716099999999997</v>
@@ -4265,7 +4265,7 @@
         <v>22.728300000000001</v>
       </c>
       <c r="D127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E127">
         <v>4967</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B128">
         <v>40.9133</v>
@@ -4282,7 +4282,7 @@
         <v>23.5014</v>
       </c>
       <c r="D128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E128">
         <v>4947</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129">
         <v>39.165199999999999</v>
@@ -4299,7 +4299,7 @@
         <v>23.4895</v>
       </c>
       <c r="D129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E129">
         <v>4883</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B130">
         <v>40.6083</v>
@@ -4316,7 +4316,7 @@
         <v>23.102799999999998</v>
       </c>
       <c r="D130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E130">
         <v>4873</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131">
         <v>38.408299999999997</v>
@@ -4333,7 +4333,7 @@
         <v>24.041699999999999</v>
       </c>
       <c r="D131" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E131">
         <v>4827</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B132">
         <v>37.537700000000001</v>
@@ -4350,7 +4350,7 @@
         <v>25.161100000000001</v>
       </c>
       <c r="D132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E132">
         <v>4762</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B133">
         <v>38.083300000000001</v>
@@ -4367,7 +4367,7 @@
         <v>23.5167</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E133">
         <v>4735</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134">
         <v>37.950000000000003</v>
@@ -4384,7 +4384,7 @@
         <v>23.5167</v>
       </c>
       <c r="D134" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E134">
         <v>4710</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B135">
         <v>38.915300000000002</v>
@@ -4401,7 +4401,7 @@
         <v>20.891100000000002</v>
       </c>
       <c r="D135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E135">
         <v>4703</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B136">
         <v>39.202800000000003</v>
@@ -4418,7 +4418,7 @@
         <v>20.8842</v>
       </c>
       <c r="D136" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E136">
         <v>4619</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137">
         <v>38.366700000000002</v>
@@ -4435,7 +4435,7 @@
         <v>23.1</v>
       </c>
       <c r="D137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E137">
         <v>4402</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B138">
         <v>37.933300000000003</v>
@@ -4452,7 +4452,7 @@
         <v>22.8</v>
       </c>
       <c r="D138" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E138">
         <v>4363</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B139">
         <v>38.433300000000003</v>
@@ -4469,7 +4469,7 @@
         <v>22.433299999999999</v>
       </c>
       <c r="D139" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E139">
         <v>4362</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B140">
         <v>38.950000000000003</v>
@@ -4486,7 +4486,7 @@
         <v>23.15</v>
       </c>
       <c r="D140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E140">
         <v>4339</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B141">
         <v>37.085000000000001</v>
@@ -4503,7 +4503,7 @@
         <v>25.151</v>
       </c>
       <c r="D141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E141">
         <v>4326</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B142">
         <v>35.15</v>
@@ -4520,7 +4520,7 @@
         <v>25.2667</v>
       </c>
       <c r="D142" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E142">
         <v>4313</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B143">
         <v>36.761699999999998</v>
@@ -4537,7 +4537,7 @@
         <v>22.566099999999999</v>
       </c>
       <c r="D143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E143">
         <v>4279</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B144">
         <v>40.687800000000003</v>
@@ -4554,7 +4554,7 @@
         <v>22.845800000000001</v>
       </c>
       <c r="D144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E144">
         <v>4266</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B145">
         <v>35.4833</v>
@@ -4571,7 +4571,7 @@
         <v>23.65</v>
       </c>
       <c r="D145" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E145">
         <v>4236</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146">
         <v>37.799999999999997</v>
@@ -4588,7 +4588,7 @@
         <v>23.783300000000001</v>
       </c>
       <c r="D146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E146">
         <v>4180</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B147">
         <v>40.502200000000002</v>
@@ -4605,7 +4605,7 @@
         <v>22.542200000000001</v>
       </c>
       <c r="D147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E147">
         <v>4153</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B148">
         <v>37.845599999999997</v>
@@ -4622,7 +4622,7 @@
         <v>23.826699999999999</v>
       </c>
       <c r="D148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E148">
         <v>4091</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149">
         <v>38.35</v>
@@ -4639,7 +4639,7 @@
         <v>23.583300000000001</v>
       </c>
       <c r="D149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E149">
         <v>4035</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B150">
         <v>38.436900000000001</v>
@@ -4656,7 +4656,7 @@
         <v>21.3536</v>
       </c>
       <c r="D150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E150">
         <v>4012</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151">
         <v>37.375</v>
@@ -4673,7 +4673,7 @@
         <v>23.158300000000001</v>
       </c>
       <c r="D151" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E151">
         <v>4006</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>37.259099999999997</v>
@@ -4690,7 +4690,7 @@
         <v>23.136399999999998</v>
       </c>
       <c r="D152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E152">
         <v>4001</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B153">
         <v>37.905799999999999</v>
@@ -4707,7 +4707,7 @@
         <v>21.2667</v>
       </c>
       <c r="D153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E153">
         <v>3981</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B154">
         <v>39.622799999999998</v>
@@ -4724,7 +4724,7 @@
         <v>20.887499999999999</v>
       </c>
       <c r="D154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E154">
         <v>3885</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B155">
         <v>40.523899999999998</v>
@@ -4741,7 +4741,7 @@
         <v>23.050799999999999</v>
       </c>
       <c r="D155" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E155">
         <v>3869</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156">
         <v>37.816699999999997</v>
@@ -4758,7 +4758,7 @@
         <v>22.666699999999999</v>
       </c>
       <c r="D156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E156">
         <v>3853</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157">
         <v>41.194200000000002</v>
@@ -4775,7 +4775,7 @@
         <v>26.302299999999999</v>
       </c>
       <c r="D157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E157">
         <v>3837</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158">
         <v>38.859200000000001</v>
@@ -4792,7 +4792,7 @@
         <v>21.175799999999999</v>
       </c>
       <c r="D158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E158">
         <v>3827</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B159">
         <v>37.445300000000003</v>
@@ -4809,7 +4809,7 @@
         <v>25.328700000000001</v>
       </c>
       <c r="D159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E159">
         <v>3783</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B160">
         <v>40.479999999999997</v>
@@ -4826,7 +4826,7 @@
         <v>23.136700000000001</v>
       </c>
       <c r="D160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E160">
         <v>3762</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161">
         <v>37.166699999999999</v>
@@ -4843,7 +4843,7 @@
         <v>22.85</v>
       </c>
       <c r="D161" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E161">
         <v>3761</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B162">
         <v>38.200000000000003</v>
@@ -4860,7 +4860,7 @@
         <v>20.433299999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E162">
         <v>3752</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B163">
         <v>40.060299999999998</v>
@@ -4877,7 +4877,7 @@
         <v>22.561199999999999</v>
       </c>
       <c r="D163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E163">
         <v>3700</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B164">
         <v>40.664200000000001</v>
@@ -4894,7 +4894,7 @@
         <v>23.696100000000001</v>
       </c>
       <c r="D164" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E164">
         <v>3672</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B165">
         <v>40.689700000000002</v>
@@ -4911,7 +4911,7 @@
         <v>21.6797</v>
       </c>
       <c r="D165" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E165">
         <v>3671</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>41.147500000000001</v>
@@ -4928,7 +4928,7 @@
         <v>24.938800000000001</v>
       </c>
       <c r="D166" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E166">
         <v>3644</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>40.948099999999997</v>
@@ -4945,7 +4945,7 @@
         <v>22.451899999999998</v>
       </c>
       <c r="D167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E167">
         <v>3609</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B168">
         <v>37.862200000000001</v>
@@ -4962,7 +4962,7 @@
         <v>21.2058</v>
       </c>
       <c r="D168" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E168">
         <v>3603</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B169">
         <v>40.723300000000002</v>
@@ -4979,7 +4979,7 @@
         <v>23.004999999999999</v>
       </c>
       <c r="D169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E169">
         <v>3591</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170">
         <v>41.178600000000003</v>
@@ -4996,7 +4996,7 @@
         <v>23.972200000000001</v>
       </c>
       <c r="D170" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E170">
         <v>3553</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B171">
         <v>40.838900000000002</v>
@@ -5013,7 +5013,7 @@
         <v>24.303599999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E171">
         <v>3514</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B172">
         <v>40.316699999999997</v>
@@ -5030,7 +5030,7 @@
         <v>22.583300000000001</v>
       </c>
       <c r="D172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E172">
         <v>3487</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B173">
         <v>41.013100000000001</v>
@@ -5047,7 +5047,7 @@
         <v>24.295000000000002</v>
       </c>
       <c r="D173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E173">
         <v>3365</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B174">
         <v>40.2547</v>
@@ -5064,7 +5064,7 @@
         <v>22.074200000000001</v>
       </c>
       <c r="D174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E174">
         <v>3360</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B175">
         <v>38.216700000000003</v>
@@ -5081,7 +5081,7 @@
         <v>23.883299999999998</v>
       </c>
       <c r="D175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E175">
         <v>3359</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B176">
         <v>41.033299999999997</v>
@@ -5098,7 +5098,7 @@
         <v>25.7</v>
       </c>
       <c r="D176" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E176">
         <v>3351</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B177">
         <v>37.950000000000003</v>
@@ -5115,7 +5115,7 @@
         <v>22.8</v>
       </c>
       <c r="D177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E177">
         <v>3338</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B178">
         <v>40.744700000000002</v>
@@ -5132,7 +5132,7 @@
         <v>22.978100000000001</v>
       </c>
       <c r="D178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E178">
         <v>3302</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B179">
         <v>40.398299999999999</v>
@@ -5149,7 +5149,7 @@
         <v>23.878299999999999</v>
       </c>
       <c r="D179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E179">
         <v>3266</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B180">
         <v>40.778100000000002</v>
@@ -5166,7 +5166,7 @@
         <v>24.709399999999999</v>
       </c>
       <c r="D180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E180">
         <v>3234</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B181">
         <v>35.2836</v>
@@ -5183,7 +5183,7 @@
         <v>25.462499999999999</v>
       </c>
       <c r="D181" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E181">
         <v>3224</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B182">
         <v>40.096699999999998</v>
@@ -5200,7 +5200,7 @@
         <v>23.783100000000001</v>
       </c>
       <c r="D182" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E182">
         <v>3158</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B183">
         <v>41.075299999999999</v>
@@ -5217,7 +5217,7 @@
         <v>24.2456</v>
       </c>
       <c r="D183" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E183">
         <v>3150</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B184">
         <v>37.4861</v>
@@ -5234,7 +5234,7 @@
         <v>21.6494</v>
       </c>
       <c r="D184" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E184">
         <v>3145</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B185">
         <v>40.274999999999999</v>
@@ -5251,7 +5251,7 @@
         <v>22.574999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E185">
         <v>3134</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B186">
         <v>40.5167</v>
@@ -5268,7 +5268,7 @@
         <v>22.4</v>
       </c>
       <c r="D186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E186">
         <v>3116</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B187">
         <v>41.05</v>
@@ -5285,7 +5285,7 @@
         <v>24.183299999999999</v>
       </c>
       <c r="D187" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E187">
         <v>3110</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B188">
         <v>40.306100000000001</v>
@@ -5302,7 +5302,7 @@
         <v>23.208600000000001</v>
       </c>
       <c r="D188" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E188">
         <v>3102</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B189">
         <v>40.816400000000002</v>
@@ -5319,7 +5319,7 @@
         <v>23.354199999999999</v>
       </c>
       <c r="D189" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E189">
         <v>3094</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B190">
         <v>36.852499999999999</v>
@@ -5336,7 +5336,7 @@
         <v>22.6661</v>
       </c>
       <c r="D190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E190">
         <v>3067</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B191">
         <v>38.033299999999997</v>
@@ -5353,7 +5353,7 @@
         <v>23.9</v>
       </c>
       <c r="D191" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E191">
         <v>3055</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B192">
         <v>40.501899999999999</v>
@@ -5370,7 +5370,7 @@
         <v>21.244700000000002</v>
       </c>
       <c r="D192" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E192">
         <v>3055</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B193">
         <v>40.7517</v>
@@ -5387,7 +5387,7 @@
         <v>22.769200000000001</v>
       </c>
       <c r="D193" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E193">
         <v>3050</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B194">
         <v>39.381700000000002</v>
@@ -5404,7 +5404,7 @@
         <v>22.745000000000001</v>
       </c>
       <c r="D194" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E194">
         <v>3044</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B195">
         <v>38.9833</v>
@@ -5421,7 +5421,7 @@
         <v>26.366700000000002</v>
       </c>
       <c r="D195" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E195">
         <v>2996</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B196">
         <v>40.294400000000003</v>
@@ -5438,7 +5438,7 @@
         <v>23.543299999999999</v>
       </c>
       <c r="D196" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E196">
         <v>2979</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B197">
         <v>40.496099999999998</v>
@@ -5455,7 +5455,7 @@
         <v>22.988099999999999</v>
       </c>
       <c r="D197" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E197">
         <v>2952</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B198">
         <v>40.041699999999999</v>
@@ -5472,7 +5472,7 @@
         <v>20.745000000000001</v>
       </c>
       <c r="D198" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E198">
         <v>2942</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199">
         <v>39.416699999999999</v>
@@ -5489,7 +5489,7 @@
         <v>20.066700000000001</v>
       </c>
       <c r="D199" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E199">
         <v>2935</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B200">
         <v>38.583300000000001</v>
@@ -5506,7 +5506,7 @@
         <v>21.446100000000001</v>
       </c>
       <c r="D200" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E200">
         <v>2935</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201">
         <v>37.7333</v>
@@ -5523,7 +5523,7 @@
         <v>23.9</v>
       </c>
       <c r="D201" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E201">
         <v>2932</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202">
         <v>40.986699999999999</v>
@@ -5540,7 +5540,7 @@
         <v>22.541399999999999</v>
       </c>
       <c r="D202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E202">
         <v>2897</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B203">
         <v>38.216700000000003</v>
@@ -5557,7 +5557,7 @@
         <v>23.316700000000001</v>
       </c>
       <c r="D203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E203">
         <v>2862</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B204">
         <v>40.719000000000001</v>
@@ -5574,7 +5574,7 @@
         <v>23.709499999999998</v>
       </c>
       <c r="D204" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E204">
         <v>2838</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B205">
         <v>38.414200000000001</v>
@@ -5591,7 +5591,7 @@
         <v>21.254200000000001</v>
       </c>
       <c r="D205" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E205">
         <v>2829</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B206">
         <v>38.408299999999997</v>
@@ -5608,7 +5608,7 @@
         <v>21.274999999999999</v>
       </c>
       <c r="D206" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E206">
         <v>2827</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B207">
         <v>40.478299999999997</v>
@@ -5625,7 +5625,7 @@
         <v>22.4861</v>
       </c>
       <c r="D207" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E207">
         <v>2822</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B208">
         <v>41.583300000000001</v>
@@ -5642,7 +5642,7 @@
         <v>26.533300000000001</v>
       </c>
       <c r="D208" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E208">
         <v>2805</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B209">
         <v>37.583300000000001</v>
@@ -5659,7 +5659,7 @@
         <v>22.7333</v>
       </c>
       <c r="D209" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E209">
         <v>2778</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B210">
         <v>40.046700000000001</v>
@@ -5676,7 +5676,7 @@
         <v>23.4161</v>
       </c>
       <c r="D210" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E210">
         <v>2775</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B211">
         <v>38.783299999999997</v>
@@ -5693,7 +5693,7 @@
         <v>22.783300000000001</v>
       </c>
       <c r="D211" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E211">
         <v>2761</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B212">
         <v>41.13</v>
@@ -5710,7 +5710,7 @@
         <v>24.208300000000001</v>
       </c>
       <c r="D212" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E212">
         <v>2725</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B213">
         <v>37.716700000000003</v>
@@ -5727,7 +5727,7 @@
         <v>23.95</v>
       </c>
       <c r="D213" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E213">
         <v>2713</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B214">
         <v>40.222799999999999</v>
@@ -5744,7 +5744,7 @@
         <v>23.668600000000001</v>
       </c>
       <c r="D214" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E214">
         <v>2711</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B215">
         <v>35.5075</v>
@@ -5761,7 +5761,7 @@
         <v>27.2136</v>
       </c>
       <c r="D215" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E215">
         <v>2707</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B216">
         <v>38.916699999999999</v>
@@ -5778,7 +5778,7 @@
         <v>22.133299999999998</v>
       </c>
       <c r="D216" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E216">
         <v>2691</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B217">
         <v>37.933300000000003</v>
@@ -5795,7 +5795,7 @@
         <v>21.2667</v>
       </c>
       <c r="D217" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E217">
         <v>2641</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B218">
         <v>41.127499999999998</v>
@@ -5812,7 +5812,7 @@
         <v>25.1844</v>
       </c>
       <c r="D218" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E218">
         <v>2586</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B219">
         <v>36.804200000000002</v>
@@ -5829,7 +5829,7 @@
         <v>22.854700000000001</v>
       </c>
       <c r="D219" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E219">
         <v>2534</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B220">
         <v>39.601100000000002</v>
@@ -5846,7 +5846,7 @@
         <v>20.311900000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E220">
         <v>2512</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B221">
         <v>39.770299999999999</v>
@@ -5863,7 +5863,7 @@
         <v>21.183900000000001</v>
       </c>
       <c r="D221" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E221">
         <v>2503</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B222">
         <v>37.156799999999997</v>
@@ -5880,7 +5880,7 @@
         <v>26.853300000000001</v>
       </c>
       <c r="D222" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E222">
         <v>2372</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B223">
         <v>39.466700000000003</v>
@@ -5897,7 +5897,7 @@
         <v>20.5</v>
       </c>
       <c r="D223" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E223">
         <v>2363</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B224">
         <v>36.9</v>
@@ -5914,7 +5914,7 @@
         <v>21.683299999999999</v>
       </c>
       <c r="D224" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E224">
         <v>2345</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B225">
         <v>37.611400000000003</v>
@@ -5931,7 +5931,7 @@
         <v>26.293099999999999</v>
       </c>
       <c r="D225" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E225">
         <v>2218</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B226">
         <v>37.496699999999997</v>
@@ -5948,7 +5948,7 @@
         <v>23.447500000000002</v>
       </c>
       <c r="D226" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E226">
         <v>2195</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B227">
         <v>41.343899999999998</v>
@@ -5965,7 +5965,7 @@
         <v>23.866700000000002</v>
       </c>
       <c r="D227" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E227">
         <v>2157</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B228">
         <v>38.533299999999997</v>
@@ -5982,7 +5982,7 @@
         <v>21.083300000000001</v>
       </c>
       <c r="D228" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E228">
         <v>2000</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B229">
         <v>37.747500000000002</v>
@@ -5999,7 +5999,7 @@
         <v>26.982500000000002</v>
       </c>
       <c r="D229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E229">
         <v>1888</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B230">
         <v>37.591700000000003</v>
@@ -6016,7 +6016,7 @@
         <v>21.62</v>
       </c>
       <c r="D230" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E230">
         <v>1864</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B231">
         <v>38.6</v>
@@ -6033,7 +6033,7 @@
         <v>22.716699999999999</v>
       </c>
       <c r="D231" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E231">
         <v>1841</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B232">
         <v>38.573599999999999</v>
@@ -6050,7 +6050,7 @@
         <v>21.666399999999999</v>
       </c>
       <c r="D232" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E232">
         <v>1716</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B233">
         <v>38.030799999999999</v>
@@ -6067,7 +6067,7 @@
         <v>22.108599999999999</v>
       </c>
       <c r="D233" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E233">
         <v>1674</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B234">
         <v>38.906399999999998</v>
@@ -6084,7 +6084,7 @@
         <v>24.565799999999999</v>
       </c>
       <c r="D234" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E234">
         <v>1657</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B235">
         <v>36.42</v>
@@ -6101,7 +6101,7 @@
         <v>25.431699999999999</v>
       </c>
       <c r="D235" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E235">
         <v>1616</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B236">
         <v>38.429299999999998</v>
@@ -6118,7 +6118,7 @@
         <v>22.667300000000001</v>
       </c>
       <c r="D236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E236">
         <v>1589</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B237">
         <v>39.1</v>
@@ -6135,7 +6135,7 @@
         <v>22.333300000000001</v>
       </c>
       <c r="D237" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E237">
         <v>1531</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B238">
         <v>41.061399999999999</v>
@@ -6152,7 +6152,7 @@
         <v>24.962399999999999</v>
       </c>
       <c r="D238" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E238">
         <v>1473</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B239">
         <v>35.2089</v>
@@ -6169,7 +6169,7 @@
         <v>25.337800000000001</v>
       </c>
       <c r="D239" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E239">
         <v>1438</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B240">
         <v>37.833300000000001</v>
@@ -6186,7 +6186,7 @@
         <v>24.933299999999999</v>
       </c>
       <c r="D240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E240">
         <v>1428</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B241">
         <v>38.116700000000002</v>
@@ -6203,7 +6203,7 @@
         <v>21.8</v>
       </c>
       <c r="D241" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E241">
         <v>913</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B242">
         <v>37.945399999999999</v>
@@ -6220,12 +6220,12 @@
         <v>23.714600000000001</v>
       </c>
       <c r="D242" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B243">
         <v>40.654000000000003</v>
@@ -6234,12 +6234,12 @@
         <v>22.9175</v>
       </c>
       <c r="D243" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B244">
         <v>37.950099999999999</v>
@@ -6248,12 +6248,12 @@
         <v>23.731200000000001</v>
       </c>
       <c r="D244" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B245">
         <v>37.934199999999997</v>
@@ -6262,12 +6262,12 @@
         <v>23.729099999999999</v>
       </c>
       <c r="D245" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B246">
         <v>37.981099999999998</v>
@@ -6276,12 +6276,12 @@
         <v>23.651399999999999</v>
       </c>
       <c r="D246" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B247">
         <v>38.012999999999998</v>
@@ -6290,12 +6290,12 @@
         <v>23.753299999999999</v>
       </c>
       <c r="D247" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B248">
         <v>40.669199999999996</v>
@@ -6304,12 +6304,12 @@
         <v>22.931000000000001</v>
       </c>
       <c r="D248" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B249">
         <v>40.578899999999997</v>
@@ -6318,12 +6318,12 @@
         <v>22.948499999999999</v>
       </c>
       <c r="D249" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B250">
         <v>37.930199999999999</v>
@@ -6332,12 +6332,12 @@
         <v>23.7026</v>
       </c>
       <c r="D250" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251">
         <v>37.988300000000002</v>
@@ -6346,12 +6346,12 @@
         <v>23.660900000000002</v>
       </c>
       <c r="D251" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B252">
         <v>37.9925</v>
@@ -6360,12 +6360,12 @@
         <v>23.678100000000001</v>
       </c>
       <c r="D252" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B253">
         <v>38.054000000000002</v>
@@ -6374,12 +6374,12 @@
         <v>23.7745</v>
       </c>
       <c r="D253" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B254">
         <v>38.032400000000003</v>
@@ -6388,12 +6388,12 @@
         <v>23.724699999999999</v>
       </c>
       <c r="D254" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B255">
         <v>38.032299999999999</v>
@@ -6402,12 +6402,12 @@
         <v>23.702200000000001</v>
       </c>
       <c r="D255" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B256">
         <v>37.964300000000001</v>
@@ -6416,12 +6416,12 @@
         <v>23.619900000000001</v>
       </c>
       <c r="D256" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B257">
         <v>37.9681</v>
@@ -6430,12 +6430,12 @@
         <v>23.759499999999999</v>
       </c>
       <c r="D257" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B258">
         <v>37.954000000000001</v>
@@ -6444,12 +6444,12 @@
         <v>23.6815</v>
       </c>
       <c r="D258" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B259">
         <v>38.035400000000003</v>
@@ -6458,12 +6458,12 @@
         <v>23.831900000000001</v>
       </c>
       <c r="D259" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B260">
         <v>37.975700000000003</v>
@@ -6472,12 +6472,12 @@
         <v>23.769100000000002</v>
       </c>
       <c r="D260" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B261">
         <v>38.0396</v>
@@ -6486,12 +6486,12 @@
         <v>23.6812</v>
       </c>
       <c r="D261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B262">
         <v>38.000999999999998</v>
@@ -6500,12 +6500,12 @@
         <v>23.800799999999999</v>
       </c>
       <c r="D262" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B263">
         <v>40.647399999999998</v>
@@ -6514,12 +6514,12 @@
         <v>22.956299999999999</v>
       </c>
       <c r="D263" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B264">
         <v>40.669800000000002</v>
@@ -6528,12 +6528,12 @@
         <v>22.908799999999999</v>
       </c>
       <c r="D264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B265">
         <v>37.959600000000002</v>
@@ -6542,12 +6542,12 @@
         <v>23.7529</v>
       </c>
       <c r="D265" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B266">
         <v>38.013599999999997</v>
@@ -6556,12 +6556,12 @@
         <v>23.825500000000002</v>
       </c>
       <c r="D266" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B267">
         <v>37.914299999999997</v>
@@ -6570,12 +6570,12 @@
         <v>23.715900000000001</v>
       </c>
       <c r="D267" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B268">
         <v>37.930199999999999</v>
@@ -6584,12 +6584,12 @@
         <v>23.7514</v>
       </c>
       <c r="D268" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B269">
         <v>38.051200000000001</v>
@@ -6598,12 +6598,12 @@
         <v>23.836200000000002</v>
       </c>
       <c r="D269" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B270">
         <v>38.063899999999997</v>
@@ -6612,12 +6612,12 @@
         <v>23.761800000000001</v>
       </c>
       <c r="D270" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B271">
         <v>38.053699999999999</v>
@@ -6626,12 +6626,12 @@
         <v>23.807700000000001</v>
       </c>
       <c r="D271" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B272">
         <v>37.906199999999998</v>
@@ -6640,12 +6640,12 @@
         <v>23.750699999999998</v>
       </c>
       <c r="D272" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B273">
         <v>38.013300000000001</v>
@@ -6654,12 +6654,12 @@
         <v>23.856000000000002</v>
       </c>
       <c r="D273" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B274">
         <v>38.013100000000001</v>
@@ -6668,12 +6668,12 @@
         <v>23.772300000000001</v>
       </c>
       <c r="D274" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B275">
         <v>37.8459</v>
@@ -6682,12 +6682,12 @@
         <v>23.762599999999999</v>
       </c>
       <c r="D275" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B276">
         <v>40.499000000000002</v>
@@ -6696,12 +6696,12 @@
         <v>22.926200000000001</v>
       </c>
       <c r="D276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B277">
         <v>38.007899999999999</v>
@@ -6710,12 +6710,12 @@
         <v>23.659700000000001</v>
       </c>
       <c r="D277" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B278">
         <v>37.780200000000001</v>
@@ -6724,12 +6724,12 @@
         <v>20.895600000000002</v>
       </c>
       <c r="D278" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B279">
         <v>38.076700000000002</v>
@@ -6738,12 +6738,12 @@
         <v>23.820799999999998</v>
       </c>
       <c r="D279" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B280">
         <v>37.966200000000001</v>
@@ -6752,12 +6752,12 @@
         <v>23.573899999999998</v>
       </c>
       <c r="D280" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B281">
         <v>38.140799999999999</v>
@@ -6766,12 +6766,12 @@
         <v>23.859100000000002</v>
       </c>
       <c r="D281" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B282">
         <v>38.249299999999998</v>
@@ -6780,12 +6780,12 @@
         <v>22.084800000000001</v>
       </c>
       <c r="D282" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B283">
         <v>40.729599999999998</v>
@@ -6794,12 +6794,12 @@
         <v>22.916499999999999</v>
       </c>
       <c r="D283" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B284">
         <v>38.830399999999997</v>
@@ -6808,12 +6808,12 @@
         <v>20.7044</v>
       </c>
       <c r="D284" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B285">
         <v>38.084699999999998</v>
@@ -6822,12 +6822,12 @@
         <v>23.737200000000001</v>
       </c>
       <c r="D285" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B286">
         <v>38.084000000000003</v>
@@ -6836,12 +6836,12 @@
         <v>23.702300000000001</v>
       </c>
       <c r="D286" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B287">
         <v>40.585299999999997</v>
@@ -6850,12 +6850,12 @@
         <v>23.028099999999998</v>
       </c>
       <c r="D287" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B288">
         <v>39.1601</v>
@@ -6864,12 +6864,12 @@
         <v>20.985600000000002</v>
       </c>
       <c r="D288" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B289">
         <v>35.325200000000002</v>
@@ -6878,12 +6878,12 @@
         <v>25.066199999999998</v>
       </c>
       <c r="D289" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B290">
         <v>38.023200000000003</v>
@@ -6892,12 +6892,12 @@
         <v>24.002600000000001</v>
       </c>
       <c r="D290" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B291">
         <v>40.780700000000003</v>
@@ -6906,12 +6906,12 @@
         <v>21.409300000000002</v>
       </c>
       <c r="D291" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B292">
         <v>37.1021</v>
@@ -6920,12 +6920,12 @@
         <v>25.378</v>
       </c>
       <c r="D292" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>9</v>
+        <v>417</v>
       </c>
       <c r="B293">
         <v>40.512099999999997</v>
@@ -6934,12 +6934,12 @@
         <v>21.678000000000001</v>
       </c>
       <c r="D293" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B294">
         <v>37.630600000000001</v>
@@ -6948,12 +6948,12 @@
         <v>22.721499999999999</v>
       </c>
       <c r="D294" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B295">
         <v>38.081499999999998</v>
@@ -6962,12 +6962,12 @@
         <v>22.619299999999999</v>
       </c>
       <c r="D295" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B296">
         <v>35.051699999999997</v>
@@ -6976,12 +6976,12 @@
         <v>24.875</v>
       </c>
       <c r="D296" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B297">
         <v>35.2181</v>
@@ -6990,12 +6990,12 @@
         <v>25.192900000000002</v>
       </c>
       <c r="D297" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B298">
         <v>35.369500000000002</v>
@@ -7004,12 +7004,12 @@
         <v>24.703900000000001</v>
       </c>
       <c r="D298" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B299">
         <v>39.503399999999999</v>
@@ -7018,12 +7018,12 @@
         <v>20.267299999999999</v>
       </c>
       <c r="D299" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>37.8506</v>
@@ -7032,12 +7032,12 @@
         <v>21.253399999999999</v>
       </c>
       <c r="D300" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>35.324800000000003</v>
@@ -7046,12 +7046,12 @@
         <v>25.2776</v>
       </c>
       <c r="D301" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>39.7059</v>
@@ -7060,12 +7060,12 @@
         <v>20.7928</v>
       </c>
       <c r="D302" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B303">
         <v>38.061700000000002</v>
@@ -7074,12 +7074,12 @@
         <v>23.589400000000001</v>
       </c>
       <c r="D303" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B304">
         <v>37.797199999999997</v>
@@ -7088,12 +7088,12 @@
         <v>21.349499999999999</v>
       </c>
       <c r="D304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B305">
         <v>37.9009</v>
@@ -7102,12 +7102,12 @@
         <v>23.872299999999999</v>
       </c>
       <c r="D305" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B306">
         <v>41.182299999999998</v>
@@ -7116,12 +7116,12 @@
         <v>23.2822</v>
       </c>
       <c r="D306" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B307">
         <v>39.2331</v>
@@ -7130,12 +7130,12 @@
         <v>20.603100000000001</v>
       </c>
       <c r="D307" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B308">
         <v>37.883299999999998</v>
@@ -7144,12 +7144,12 @@
         <v>23.933299999999999</v>
       </c>
       <c r="D308" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B309">
         <v>37.646900000000002</v>
@@ -7158,12 +7158,12 @@
         <v>21.625599999999999</v>
       </c>
       <c r="D309" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B310">
         <v>35.005600000000001</v>
@@ -7172,12 +7172,12 @@
         <v>25.7333</v>
       </c>
       <c r="D310" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B311">
         <v>40.084000000000003</v>
@@ -7186,12 +7186,12 @@
         <v>21.429099999999998</v>
       </c>
       <c r="D311" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B312">
         <v>37.839100000000002</v>
@@ -7200,12 +7200,12 @@
         <v>23.927600000000002</v>
       </c>
       <c r="D312" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B313">
         <v>35.516800000000003</v>
@@ -7214,12 +7214,12 @@
         <v>23.878</v>
       </c>
       <c r="D313" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B314">
         <v>39.428800000000003</v>
@@ -7228,7 +7228,7 @@
         <v>21.6629</v>
       </c>
       <c r="D314" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7242,12 +7242,12 @@
         <v>23.3172</v>
       </c>
       <c r="D315" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B316">
         <v>38.016500000000001</v>
@@ -7256,12 +7256,12 @@
         <v>24.420400000000001</v>
       </c>
       <c r="D316" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B317">
         <v>38.914400000000001</v>
@@ -7270,12 +7270,12 @@
         <v>22.613800000000001</v>
       </c>
       <c r="D317" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B318">
         <v>37.223700000000001</v>
@@ -7284,12 +7284,12 @@
         <v>21.969899999999999</v>
       </c>
       <c r="D318" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B319">
         <v>38.301699999999997</v>
@@ -7298,12 +7298,12 @@
         <v>23.754200000000001</v>
       </c>
       <c r="D319" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B320">
         <v>39.718800000000002</v>
@@ -7312,12 +7312,12 @@
         <v>22.755500000000001</v>
       </c>
       <c r="D320" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B321">
         <v>38.371400000000001</v>
@@ -7326,12 +7326,12 @@
         <v>21.4315</v>
       </c>
       <c r="D321" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B322">
         <v>39.464399999999998</v>
@@ -7340,12 +7340,12 @@
         <v>22.0825</v>
       </c>
       <c r="D322" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B323">
         <v>37.975000000000001</v>
@@ -7354,12 +7354,12 @@
         <v>22.979800000000001</v>
       </c>
       <c r="D323" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B324">
         <v>38.397100000000002</v>
@@ -7368,12 +7368,12 @@
         <v>23.790199999999999</v>
       </c>
       <c r="D324" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B325">
         <v>39.167700000000004</v>
@@ -7382,12 +7382,12 @@
         <v>21.0351</v>
       </c>
       <c r="D325" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B326">
         <v>39.334400000000002</v>
@@ -7396,12 +7396,12 @@
         <v>22.097300000000001</v>
       </c>
       <c r="D326" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B327">
         <v>40.914900000000003</v>
@@ -7410,12 +7410,12 @@
         <v>24.254200000000001</v>
       </c>
       <c r="D327" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B328">
         <v>41.121600000000001</v>
@@ -7424,12 +7424,12 @@
         <v>25.632400000000001</v>
       </c>
       <c r="D328" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B329">
         <v>40.630000000000003</v>
@@ -7438,12 +7438,12 @@
         <v>22.0684</v>
       </c>
       <c r="D329" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B330">
         <v>40.981200000000001</v>
@@ -7452,12 +7452,12 @@
         <v>24.8001</v>
       </c>
       <c r="D330" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B331">
         <v>39.459600000000002</v>
@@ -7466,12 +7466,12 @@
         <v>21.6221</v>
       </c>
       <c r="D331" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B332">
         <v>39.196100000000001</v>
@@ -7480,12 +7480,12 @@
         <v>20.1858</v>
       </c>
       <c r="D332" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B333">
         <v>37.5167</v>
@@ -7494,12 +7494,12 @@
         <v>23.466699999999999</v>
       </c>
       <c r="D333" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B334">
         <v>41.058399999999999</v>
@@ -7508,12 +7508,12 @@
         <v>23.651399999999999</v>
       </c>
       <c r="D334" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B335">
         <v>40.184399999999997</v>
@@ -7522,12 +7522,12 @@
         <v>22.000499999999999</v>
       </c>
       <c r="D335" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B336">
         <v>37.709600000000002</v>
@@ -7536,12 +7536,12 @@
         <v>23.347200000000001</v>
       </c>
       <c r="D336" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B337">
         <v>39.591299999999997</v>
@@ -7550,12 +7550,12 @@
         <v>22.0686</v>
       </c>
       <c r="D337" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B338">
         <v>37.308599999999998</v>
@@ -7564,12 +7564,12 @@
         <v>26.5474</v>
       </c>
       <c r="D338" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B339">
         <v>39.564900000000002</v>
@@ -7578,12 +7578,12 @@
         <v>22.466000000000001</v>
       </c>
       <c r="D339" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B340">
         <v>38.0747</v>
@@ -7592,12 +7592,12 @@
         <v>23.4969</v>
       </c>
       <c r="D340" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B341">
         <v>41.228900000000003</v>
@@ -7606,12 +7606,12 @@
         <v>24.880400000000002</v>
       </c>
       <c r="D341" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B342">
         <v>39.444400000000002</v>
@@ -7620,12 +7620,12 @@
         <v>23.101199999999999</v>
       </c>
       <c r="D342" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B343">
         <v>36.887700000000002</v>
@@ -7634,12 +7634,12 @@
         <v>22.232700000000001</v>
       </c>
       <c r="D343" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B344">
         <v>38.654000000000003</v>
@@ -7648,12 +7648,12 @@
         <v>22.997</v>
       </c>
       <c r="D344" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B345">
         <v>35.058199999999999</v>
@@ -7662,12 +7662,12 @@
         <v>24.9602</v>
       </c>
       <c r="D345" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B346">
         <v>41.031199999999998</v>
@@ -7676,12 +7676,12 @@
         <v>23.828900000000001</v>
       </c>
       <c r="D346" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B347">
         <v>36.509</v>
@@ -7690,12 +7690,12 @@
         <v>22.9787</v>
       </c>
       <c r="D347" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B348">
         <v>35.199100000000001</v>
@@ -7704,12 +7704,12 @@
         <v>25.488900000000001</v>
       </c>
       <c r="D348" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B349">
         <v>39.887099999999997</v>
@@ -7718,12 +7718,12 @@
         <v>20.6249</v>
       </c>
       <c r="D349" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B350">
         <v>41.2361</v>
@@ -7732,12 +7732,12 @@
         <v>23.392499999999998</v>
       </c>
       <c r="D350" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B351">
         <v>38.3626</v>
@@ -7746,12 +7746,12 @@
         <v>20.721800000000002</v>
       </c>
       <c r="D351" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B352">
         <v>38.765900000000002</v>
@@ -7760,12 +7760,12 @@
         <v>23.319500000000001</v>
       </c>
       <c r="D352" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B353">
         <v>37.295900000000003</v>
@@ -7774,12 +7774,12 @@
         <v>26.769500000000001</v>
       </c>
       <c r="D353" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B354">
         <v>36.148299999999999</v>
@@ -7788,12 +7788,12 @@
         <v>29.591699999999999</v>
       </c>
       <c r="D354" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B355">
         <v>38.515799999999999</v>
@@ -7802,12 +7802,12 @@
         <v>26.2225</v>
       </c>
       <c r="D355" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B356">
         <v>39.121699999999997</v>
@@ -7816,12 +7816,12 @@
         <v>23.727599999999999</v>
       </c>
       <c r="D356" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B357">
         <v>35.216799999999999</v>
@@ -7830,12 +7830,12 @@
         <v>24.536100000000001</v>
       </c>
       <c r="D357" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B358">
         <v>37.4512</v>
@@ -7844,12 +7844,12 @@
         <v>24.935600000000001</v>
       </c>
       <c r="D358" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B359">
         <v>39.521999999999998</v>
@@ -7858,12 +7858,12 @@
         <v>21.098600000000001</v>
       </c>
       <c r="D359" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B360">
         <v>36.6145</v>
@@ -7872,12 +7872,12 @@
         <v>27.836200000000002</v>
       </c>
       <c r="D360" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B361">
         <v>40.921100000000003</v>
@@ -7886,12 +7886,12 @@
         <v>23.974599999999999</v>
       </c>
       <c r="D361" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B362">
         <v>35.053899999999999</v>
@@ -7900,12 +7900,12 @@
         <v>25.41</v>
       </c>
       <c r="D362" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B363">
         <v>35.231299999999997</v>
@@ -7914,12 +7914,12 @@
         <v>23.6813</v>
       </c>
       <c r="D363" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B364">
         <v>36.974400000000003</v>
@@ -7928,12 +7928,12 @@
         <v>24.724</v>
       </c>
       <c r="D364" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B365">
         <v>39.522599999999997</v>
@@ -7942,12 +7942,12 @@
         <v>20.883600000000001</v>
       </c>
       <c r="D365" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B366">
         <v>37.576799999999999</v>
@@ -7956,12 +7956,12 @@
         <v>26.4815</v>
       </c>
       <c r="D366" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B367">
         <v>39.226100000000002</v>
@@ -7970,12 +7970,12 @@
         <v>23.217300000000002</v>
       </c>
       <c r="D367" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B368">
         <v>37.346899999999998</v>
@@ -7984,12 +7984,12 @@
         <v>23.465699999999998</v>
       </c>
       <c r="D368" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B369">
         <v>37.597499999999997</v>
@@ -7998,12 +7998,12 @@
         <v>23.0747</v>
       </c>
       <c r="D369" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B370">
         <v>39.9253</v>
@@ -8012,12 +8012,12 @@
         <v>21.810199999999998</v>
       </c>
       <c r="D370" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B371">
         <v>39.804200000000002</v>
@@ -8026,12 +8026,12 @@
         <v>22.4923</v>
       </c>
       <c r="D371" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B372">
         <v>35.254199999999997</v>
@@ -8040,12 +8040,12 @@
         <v>24.6342</v>
       </c>
       <c r="D372" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B373">
         <v>36.628</v>
@@ -8054,12 +8054,12 @@
         <v>24.919899999999998</v>
       </c>
       <c r="D373" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B374">
         <v>35.454500000000003</v>
@@ -8068,12 +8068,12 @@
         <v>23.6004</v>
       </c>
       <c r="D374" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B375">
         <v>36.610399999999998</v>
@@ -8082,12 +8082,12 @@
         <v>27.132200000000001</v>
       </c>
       <c r="D375" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B376">
         <v>37.040399999999998</v>
@@ -8096,12 +8096,12 @@
         <v>25.081900000000001</v>
       </c>
       <c r="D376" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B377">
         <v>35.290700000000001</v>
@@ -8110,12 +8110,12 @@
         <v>24.883400000000002</v>
       </c>
       <c r="D377" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B378">
         <v>39.352499999999999</v>
@@ -8124,12 +8124,12 @@
         <v>21.750399999999999</v>
       </c>
       <c r="D378" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B379">
         <v>36.1492</v>
@@ -8138,12 +8138,12 @@
         <v>22.988</v>
       </c>
       <c r="D379" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B380">
         <v>38.5274</v>
@@ -8152,12 +8152,12 @@
         <v>22.205100000000002</v>
       </c>
       <c r="D380" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B381">
         <v>39.1494</v>
@@ -8166,12 +8166,12 @@
         <v>23.845400000000001</v>
       </c>
       <c r="D381" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B382">
         <v>37.155000000000001</v>
@@ -8180,12 +8180,12 @@
         <v>24.506399999999999</v>
       </c>
       <c r="D382" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B383">
         <v>36.723300000000002</v>
@@ -8194,12 +8194,12 @@
         <v>25.282499999999999</v>
       </c>
       <c r="D383" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B384">
         <v>39.371699999999997</v>
@@ -8208,12 +8208,12 @@
         <v>21.183299999999999</v>
       </c>
       <c r="D384" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B385">
         <v>36.793700000000001</v>
@@ -8222,12 +8222,12 @@
         <v>24.573899999999998</v>
       </c>
       <c r="D385" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B386">
         <v>40.474299999999999</v>
@@ -8236,12 +8236,12 @@
         <v>25.525099999999998</v>
       </c>
       <c r="D386" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B387">
         <v>35.416200000000003</v>
@@ -8250,12 +8250,12 @@
         <v>26.923100000000002</v>
       </c>
       <c r="D387" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B388">
         <v>37.412300000000002</v>
@@ -8264,12 +8264,12 @@
         <v>24.431000000000001</v>
       </c>
       <c r="D388" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B389">
         <v>39.0045</v>
@@ -8278,12 +8278,12 @@
         <v>21.638999999999999</v>
       </c>
       <c r="D389" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B390">
         <v>37.639699999999998</v>
@@ -8292,12 +8292,12 @@
         <v>24.342300000000002</v>
       </c>
       <c r="D390" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B391">
         <v>36.2226</v>
@@ -8306,12 +8306,12 @@
         <v>27.6113</v>
       </c>
       <c r="D391" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B392">
         <v>37.457799999999999</v>
@@ -8320,12 +8320,12 @@
         <v>26.9724</v>
       </c>
       <c r="D392" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B393">
         <v>36.547899999999998</v>
@@ -8334,12 +8334,12 @@
         <v>26.352</v>
       </c>
       <c r="D393" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B394">
         <v>39.822600000000001</v>
@@ -8348,12 +8348,12 @@
         <v>20.727599999999999</v>
       </c>
       <c r="D394" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B395">
         <v>37.595700000000001</v>
@@ -8362,12 +8362,12 @@
         <v>22.0395</v>
       </c>
       <c r="D395" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B396">
         <v>39.347299999999997</v>
@@ -8376,12 +8376,12 @@
         <v>21.458600000000001</v>
       </c>
       <c r="D396" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B397">
         <v>36.831800000000001</v>
@@ -8390,12 +8390,12 @@
         <v>25.898299999999999</v>
       </c>
       <c r="D397" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B398">
         <v>39.2515</v>
@@ -8404,12 +8404,12 @@
         <v>21.167899999999999</v>
       </c>
       <c r="D398" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B399">
         <v>38.541400000000003</v>
@@ -8418,12 +8418,12 @@
         <v>25.562999999999999</v>
       </c>
       <c r="D399" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B400">
         <v>36.743600000000001</v>
@@ -8432,12 +8432,12 @@
         <v>24.422499999999999</v>
       </c>
       <c r="D400" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B401">
         <v>40.835900000000002</v>
@@ -8446,12 +8446,12 @@
         <v>21.1404</v>
       </c>
       <c r="D401" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B402">
         <v>36.455100000000002</v>
@@ -8460,12 +8460,12 @@
         <v>27.346900000000002</v>
       </c>
       <c r="D402" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B403">
         <v>36.350900000000003</v>
@@ -8474,12 +8474,12 @@
         <v>25.767099999999999</v>
       </c>
       <c r="D403" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B404">
         <v>39.539099999999998</v>
@@ -8488,12 +8488,12 @@
         <v>24.990400000000001</v>
       </c>
       <c r="D404" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B405">
         <v>36.6965</v>
@@ -8502,12 +8502,12 @@
         <v>25.119900000000001</v>
       </c>
       <c r="D405" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B406">
         <v>35.201799999999999</v>
@@ -8516,12 +8516,12 @@
         <v>24.139800000000001</v>
       </c>
       <c r="D406" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B407">
         <v>40.413400000000003</v>
@@ -8530,12 +8530,12 @@
         <v>21.061199999999999</v>
       </c>
       <c r="D407" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B408">
         <v>41.266800000000003</v>
@@ -8544,12 +8544,12 @@
         <v>24.501999999999999</v>
       </c>
       <c r="D408" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B409">
         <v>34.834499999999998</v>
@@ -8558,7 +8558,7 @@
         <v>24.086400000000001</v>
       </c>
       <c r="D409" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
